--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7302,28 +7302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>920.4994698094899</v>
+        <v>993.5877326369874</v>
       </c>
       <c r="AB2" t="n">
-        <v>1259.467984163873</v>
+        <v>1359.470569791042</v>
       </c>
       <c r="AC2" t="n">
-        <v>1139.26612742969</v>
+        <v>1229.724606639113</v>
       </c>
       <c r="AD2" t="n">
-        <v>920499.4698094899</v>
+        <v>993587.7326369875</v>
       </c>
       <c r="AE2" t="n">
-        <v>1259467.984163873</v>
+        <v>1359470.569791042</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.396662496674038e-06</v>
+        <v>2.58419128524145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.88053385416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1139266.12742969</v>
+        <v>1229724.606639113</v>
       </c>
     </row>
     <row r="3">
@@ -7408,28 +7408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.949969382597</v>
+        <v>504.6470309827381</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.8508632022673</v>
+        <v>690.4803312463142</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.3114123984278</v>
+        <v>624.5818575273967</v>
       </c>
       <c r="AD3" t="n">
-        <v>455949.969382597</v>
+        <v>504647.0309827381</v>
       </c>
       <c r="AE3" t="n">
-        <v>623850.8632022673</v>
+        <v>690480.3312463142</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.173094432120345e-06</v>
+        <v>4.020793646901179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>564311.4123984278</v>
+        <v>624581.8575273966</v>
       </c>
     </row>
     <row r="4">
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.9090825379322</v>
+        <v>422.4106330329461</v>
       </c>
       <c r="AB4" t="n">
-        <v>528.0178318355496</v>
+        <v>577.9608635575837</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.6245510428454</v>
+        <v>522.8010899128138</v>
       </c>
       <c r="AD4" t="n">
-        <v>385909.0825379322</v>
+        <v>422410.6330329461</v>
       </c>
       <c r="AE4" t="n">
-        <v>528017.8318355496</v>
+        <v>577960.8635575837</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.468037732273651e-06</v>
+        <v>4.566515972596597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1572265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>477624.5510428454</v>
+        <v>522801.0899128139</v>
       </c>
     </row>
     <row r="5">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>344.5900967625539</v>
+        <v>381.1768986035885</v>
       </c>
       <c r="AB5" t="n">
-        <v>471.4833726326762</v>
+        <v>521.5430490073595</v>
       </c>
       <c r="AC5" t="n">
-        <v>426.4856612796823</v>
+        <v>471.767712400363</v>
       </c>
       <c r="AD5" t="n">
-        <v>344590.0967625539</v>
+        <v>381176.8986035885</v>
       </c>
       <c r="AE5" t="n">
-        <v>471483.3726326762</v>
+        <v>521543.0490073595</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.623772276324208e-06</v>
+        <v>4.8546656526409e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.791015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>426485.6612796823</v>
+        <v>471767.712400363</v>
       </c>
     </row>
     <row r="6">
@@ -7726,28 +7726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>328.6117804371105</v>
+        <v>365.1985822781451</v>
       </c>
       <c r="AB6" t="n">
-        <v>449.6211353226385</v>
+        <v>499.6808116973218</v>
       </c>
       <c r="AC6" t="n">
-        <v>406.7099252146719</v>
+        <v>451.9919763353526</v>
       </c>
       <c r="AD6" t="n">
-        <v>328611.7804371105</v>
+        <v>365198.5822781451</v>
       </c>
       <c r="AE6" t="n">
-        <v>449621.1353226384</v>
+        <v>499680.8116973218</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.720126023002971e-06</v>
+        <v>5.032945310797808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.5859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>406709.9252146719</v>
+        <v>451991.9763353526</v>
       </c>
     </row>
     <row r="7">
@@ -7832,28 +7832,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.9618660291713</v>
+        <v>354.3780756696136</v>
       </c>
       <c r="AB7" t="n">
-        <v>435.0494525886319</v>
+        <v>484.8757171884685</v>
       </c>
       <c r="AC7" t="n">
-        <v>393.5289434293138</v>
+        <v>438.5998592673435</v>
       </c>
       <c r="AD7" t="n">
-        <v>317961.8660291713</v>
+        <v>354378.0756696136</v>
       </c>
       <c r="AE7" t="n">
-        <v>435049.4525886319</v>
+        <v>484875.7171884684</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.785949076693404e-06</v>
+        <v>5.154735193550346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.4541015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>393528.9434293138</v>
+        <v>438599.8592673435</v>
       </c>
     </row>
     <row r="8">
@@ -7938,28 +7938,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>309.85737219845</v>
+        <v>346.2735818388923</v>
       </c>
       <c r="AB8" t="n">
-        <v>423.9605265844055</v>
+        <v>473.786791184242</v>
       </c>
       <c r="AC8" t="n">
-        <v>383.4983289595253</v>
+        <v>428.569244797555</v>
       </c>
       <c r="AD8" t="n">
-        <v>309857.37219845</v>
+        <v>346273.5818388922</v>
       </c>
       <c r="AE8" t="n">
-        <v>423960.5265844055</v>
+        <v>473786.7911842419</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.839074349813768e-06</v>
+        <v>5.253030857786083e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.353190104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>383498.3289595253</v>
+        <v>428569.244797555</v>
       </c>
     </row>
     <row r="9">
@@ -8044,28 +8044,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>304.3924685715896</v>
+        <v>340.8086782120319</v>
       </c>
       <c r="AB9" t="n">
-        <v>416.4832043476028</v>
+        <v>466.3094689474392</v>
       </c>
       <c r="AC9" t="n">
-        <v>376.7346318625154</v>
+        <v>421.805547700545</v>
       </c>
       <c r="AD9" t="n">
-        <v>304392.4685715896</v>
+        <v>340808.6782120319</v>
       </c>
       <c r="AE9" t="n">
-        <v>416483.2043476028</v>
+        <v>466309.4689474392</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.871752461574977e-06</v>
+        <v>5.313493920145499e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.291341145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>376734.6318625154</v>
+        <v>421805.5477005451</v>
       </c>
     </row>
     <row r="10">
@@ -8150,28 +8150,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>299.8138159907493</v>
+        <v>324.2051067266567</v>
       </c>
       <c r="AB10" t="n">
-        <v>410.2184898906013</v>
+        <v>443.5917299432721</v>
       </c>
       <c r="AC10" t="n">
-        <v>371.0678129607082</v>
+        <v>401.2559578223886</v>
       </c>
       <c r="AD10" t="n">
-        <v>299813.8159907493</v>
+        <v>324205.1067266567</v>
       </c>
       <c r="AE10" t="n">
-        <v>410218.4898906014</v>
+        <v>443591.7299432721</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.899015343387185e-06</v>
+        <v>5.363937389313926e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.242513020833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>371067.8129607082</v>
+        <v>401255.9578223886</v>
       </c>
     </row>
     <row r="11">
@@ -8256,28 +8256,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>295.6502739191928</v>
+        <v>320.0415646551002</v>
       </c>
       <c r="AB11" t="n">
-        <v>404.5217479457854</v>
+        <v>437.894987998456</v>
       </c>
       <c r="AC11" t="n">
-        <v>365.9147600716778</v>
+        <v>396.1029049333583</v>
       </c>
       <c r="AD11" t="n">
-        <v>295650.2739191928</v>
+        <v>320041.5646551002</v>
       </c>
       <c r="AE11" t="n">
-        <v>404521.7479457854</v>
+        <v>437894.9879984561</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.925904761064978e-06</v>
+        <v>5.413689852055388e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.193684895833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>365914.7600716779</v>
+        <v>396102.9049333583</v>
       </c>
     </row>
     <row r="12">
@@ -8362,28 +8362,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>292.9369473145663</v>
+        <v>317.3282380504737</v>
       </c>
       <c r="AB12" t="n">
-        <v>400.8092547818138</v>
+        <v>434.1824948344845</v>
       </c>
       <c r="AC12" t="n">
-        <v>362.556582044759</v>
+        <v>392.7447269064393</v>
       </c>
       <c r="AD12" t="n">
-        <v>292936.9473145664</v>
+        <v>317328.2380504737</v>
       </c>
       <c r="AE12" t="n">
-        <v>400809.2547818138</v>
+        <v>434182.4948344845</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.939349469903876e-06</v>
+        <v>5.43856608342612e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>362556.582044759</v>
+        <v>392744.7269064393</v>
       </c>
     </row>
     <row r="13">
@@ -8468,28 +8468,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>288.846992318994</v>
+        <v>313.2382830549014</v>
       </c>
       <c r="AB13" t="n">
-        <v>395.2131979207917</v>
+        <v>428.5864379734625</v>
       </c>
       <c r="AC13" t="n">
-        <v>357.4946049964377</v>
+        <v>387.6827498581181</v>
       </c>
       <c r="AD13" t="n">
-        <v>288846.992318994</v>
+        <v>313238.2830549014</v>
       </c>
       <c r="AE13" t="n">
-        <v>395213.1979207917</v>
+        <v>428586.4379734625</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.963064442439153e-06</v>
+        <v>5.482444991538381e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.128580729166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>357494.6049964377</v>
+        <v>387682.7498581181</v>
       </c>
     </row>
     <row r="14">
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>286.331199057511</v>
+        <v>310.7224897934183</v>
       </c>
       <c r="AB14" t="n">
-        <v>391.7709785914653</v>
+        <v>425.144218644136</v>
       </c>
       <c r="AC14" t="n">
-        <v>354.3809062487169</v>
+        <v>384.5690511103973</v>
       </c>
       <c r="AD14" t="n">
-        <v>286331.1990575109</v>
+        <v>310722.4897934183</v>
       </c>
       <c r="AE14" t="n">
-        <v>391770.9785914653</v>
+        <v>425144.218644136</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.976695883345257e-06</v>
+        <v>5.507666726122596e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.105794270833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>354380.9062487169</v>
+        <v>384569.0511103973</v>
       </c>
     </row>
     <row r="15">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>284.9880792252171</v>
+        <v>309.3793699611245</v>
       </c>
       <c r="AB15" t="n">
-        <v>389.9332627826557</v>
+        <v>423.3065028353264</v>
       </c>
       <c r="AC15" t="n">
-        <v>352.7185794574498</v>
+        <v>382.9067243191303</v>
       </c>
       <c r="AD15" t="n">
-        <v>284988.0792252171</v>
+        <v>309379.3699611245</v>
       </c>
       <c r="AE15" t="n">
-        <v>389933.2627826557</v>
+        <v>423306.5028353264</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.983324871731102e-06</v>
+        <v>5.51993209020122e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>352718.5794574498</v>
+        <v>382906.7243191302</v>
       </c>
     </row>
     <row r="16">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>281.7092476481026</v>
+        <v>306.1005383840101</v>
       </c>
       <c r="AB16" t="n">
-        <v>385.4470207670076</v>
+        <v>418.8202608196783</v>
       </c>
       <c r="AC16" t="n">
-        <v>348.660498083295</v>
+        <v>378.8486429449754</v>
       </c>
       <c r="AD16" t="n">
-        <v>281709.2476481026</v>
+        <v>306100.5383840101</v>
       </c>
       <c r="AE16" t="n">
-        <v>385447.0207670076</v>
+        <v>418820.2608196783</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.99788997297324e-06</v>
+        <v>5.546881340852845e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.068359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>348660.498083295</v>
+        <v>378848.6429449754</v>
       </c>
     </row>
     <row r="17">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>280.2788337970766</v>
+        <v>304.6701245329841</v>
       </c>
       <c r="AB17" t="n">
-        <v>383.4898654306285</v>
+        <v>416.8631054832992</v>
       </c>
       <c r="AC17" t="n">
-        <v>346.8901309053351</v>
+        <v>377.0782757670155</v>
       </c>
       <c r="AD17" t="n">
-        <v>280278.8337970766</v>
+        <v>304670.124532984</v>
       </c>
       <c r="AE17" t="n">
-        <v>383489.8654306285</v>
+        <v>416863.1054832992</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.005172523594309e-06</v>
+        <v>5.560355966178658e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.056966145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>346890.1309053351</v>
+        <v>377078.2757670155</v>
       </c>
     </row>
     <row r="18">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>277.9257737439999</v>
+        <v>302.3170644799073</v>
       </c>
       <c r="AB18" t="n">
-        <v>380.2703048563258</v>
+        <v>413.6435449089965</v>
       </c>
       <c r="AC18" t="n">
-        <v>343.9778406735622</v>
+        <v>374.1659855352426</v>
       </c>
       <c r="AD18" t="n">
-        <v>277925.7737439998</v>
+        <v>302317.0644799073</v>
       </c>
       <c r="AE18" t="n">
-        <v>380270.3048563258</v>
+        <v>413643.5449089965</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.012921904383396e-06</v>
+        <v>5.574694349538177e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.0439453125</v>
       </c>
       <c r="AH18" t="n">
-        <v>343977.8406735622</v>
+        <v>374165.9855352426</v>
       </c>
     </row>
     <row r="19">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>276.3247130297734</v>
+        <v>300.7160037656809</v>
       </c>
       <c r="AB19" t="n">
-        <v>378.0796629533076</v>
+        <v>411.4529030059783</v>
       </c>
       <c r="AC19" t="n">
-        <v>341.9962705591828</v>
+        <v>372.1844154208633</v>
       </c>
       <c r="AD19" t="n">
-        <v>276324.7130297734</v>
+        <v>300716.0037656808</v>
       </c>
       <c r="AE19" t="n">
-        <v>378079.6629533076</v>
+        <v>411452.9030059783</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.020484553105276e-06</v>
+        <v>5.588687229684214e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.030924479166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>341996.2705591829</v>
+        <v>372184.4154208633</v>
       </c>
     </row>
     <row r="20">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>274.1136893891858</v>
+        <v>298.5049801250931</v>
       </c>
       <c r="AB20" t="n">
-        <v>375.0544428647768</v>
+        <v>408.4276829174474</v>
       </c>
       <c r="AC20" t="n">
-        <v>339.2597732299783</v>
+        <v>369.4479180916587</v>
       </c>
       <c r="AD20" t="n">
-        <v>274113.6893891857</v>
+        <v>298504.9801250931</v>
       </c>
       <c r="AE20" t="n">
-        <v>375054.4428647768</v>
+        <v>408427.6829174474</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.028514031995172e-06</v>
+        <v>5.603543867863956e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.017903645833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>339259.7732299783</v>
+        <v>369447.9180916587</v>
       </c>
     </row>
     <row r="21">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>272.5129617002895</v>
+        <v>296.9042524361969</v>
       </c>
       <c r="AB21" t="n">
-        <v>372.8642566217073</v>
+        <v>406.2374966743781</v>
       </c>
       <c r="AC21" t="n">
-        <v>337.2786152880018</v>
+        <v>367.4667601496822</v>
       </c>
       <c r="AD21" t="n">
-        <v>272512.9617002895</v>
+        <v>296904.2524361969</v>
       </c>
       <c r="AE21" t="n">
-        <v>372864.2566217073</v>
+        <v>406237.4966743781</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.027767103726345e-06</v>
+        <v>5.602161855010026e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH21" t="n">
-        <v>337278.6152880018</v>
+        <v>367466.7601496822</v>
       </c>
     </row>
     <row r="22">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>272.3393220377874</v>
+        <v>296.7306127736948</v>
       </c>
       <c r="AB22" t="n">
-        <v>372.6266751750307</v>
+        <v>405.9999152277014</v>
       </c>
       <c r="AC22" t="n">
-        <v>337.0637082811483</v>
+        <v>367.2518531428287</v>
       </c>
       <c r="AD22" t="n">
-        <v>272339.3220377874</v>
+        <v>296730.6127736948</v>
       </c>
       <c r="AE22" t="n">
-        <v>372626.6751750307</v>
+        <v>405999.9152277014</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.035329752448224e-06</v>
+        <v>5.616154735156062e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>337063.7082811483</v>
+        <v>367251.8531428287</v>
       </c>
     </row>
     <row r="23">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>256.465734011836</v>
+        <v>292.9671949983021</v>
       </c>
       <c r="AB23" t="n">
-        <v>350.9077317444786</v>
+        <v>400.8506409971347</v>
       </c>
       <c r="AC23" t="n">
-        <v>317.4175903289851</v>
+        <v>362.5940184177754</v>
       </c>
       <c r="AD23" t="n">
-        <v>256465.734011836</v>
+        <v>292967.1949983021</v>
       </c>
       <c r="AE23" t="n">
-        <v>350907.7317444786</v>
+        <v>400850.6409971347</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.043452597371725e-06</v>
+        <v>5.631184124942546e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>317417.5903289851</v>
+        <v>362594.0184177754</v>
       </c>
     </row>
     <row r="24">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>256.5325065772195</v>
+        <v>293.0339675636856</v>
       </c>
       <c r="AB24" t="n">
-        <v>350.999092914234</v>
+        <v>400.94200216689</v>
       </c>
       <c r="AC24" t="n">
-        <v>317.5002321169252</v>
+        <v>362.6766602057156</v>
       </c>
       <c r="AD24" t="n">
-        <v>256532.5065772195</v>
+        <v>293033.9675636856</v>
       </c>
       <c r="AE24" t="n">
-        <v>350999.092914234</v>
+        <v>400942.00216689</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.04223883893488e-06</v>
+        <v>5.62893835405491e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.9951171875</v>
       </c>
       <c r="AH24" t="n">
-        <v>317500.2321169252</v>
+        <v>362676.6602057156</v>
       </c>
     </row>
     <row r="25">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>253.6000129170785</v>
+        <v>290.1014739035446</v>
       </c>
       <c r="AB25" t="n">
-        <v>346.9867257159415</v>
+        <v>396.9296349685955</v>
       </c>
       <c r="AC25" t="n">
-        <v>313.8707996126437</v>
+        <v>359.0472277014335</v>
       </c>
       <c r="AD25" t="n">
-        <v>253600.0129170785</v>
+        <v>290101.4739035446</v>
       </c>
       <c r="AE25" t="n">
-        <v>346986.7257159415</v>
+        <v>396929.6349685955</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.049521389555949e-06</v>
+        <v>5.642412979380724e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.983723958333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>313870.7996126437</v>
+        <v>359047.2277014335</v>
       </c>
     </row>
     <row r="26">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>252.7910668675173</v>
+        <v>289.2925278539834</v>
       </c>
       <c r="AB26" t="n">
-        <v>345.8798900427514</v>
+        <v>395.8227992954048</v>
       </c>
       <c r="AC26" t="n">
-        <v>312.8695987826489</v>
+        <v>358.0460268714385</v>
       </c>
       <c r="AD26" t="n">
-        <v>252791.0668675173</v>
+        <v>289292.5278539833</v>
       </c>
       <c r="AE26" t="n">
-        <v>345879.8900427514</v>
+        <v>395822.7992954048</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.049334657488742e-06</v>
+        <v>5.642067476167241e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.983723958333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>312869.5987826489</v>
+        <v>358046.0268714385</v>
       </c>
     </row>
     <row r="27">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>251.0613009888656</v>
+        <v>287.5627619753316</v>
       </c>
       <c r="AB27" t="n">
-        <v>343.5131480556965</v>
+        <v>393.4560573083488</v>
       </c>
       <c r="AC27" t="n">
-        <v>310.7287353290947</v>
+        <v>355.9051634178839</v>
       </c>
       <c r="AD27" t="n">
-        <v>251061.3009888656</v>
+        <v>287562.7619753316</v>
       </c>
       <c r="AE27" t="n">
-        <v>343513.1480556966</v>
+        <v>393456.0573083488</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.05792433258026e-06</v>
+        <v>5.657960623987429e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.969075520833333</v>
       </c>
       <c r="AH27" t="n">
-        <v>310728.7353290946</v>
+        <v>355905.1634178839</v>
       </c>
     </row>
     <row r="28">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>249.9994589528105</v>
+        <v>286.5009199392765</v>
       </c>
       <c r="AB28" t="n">
-        <v>342.0602889368022</v>
+        <v>392.0031981894538</v>
       </c>
       <c r="AC28" t="n">
-        <v>309.4145350454066</v>
+        <v>354.5909631341956</v>
       </c>
       <c r="AD28" t="n">
-        <v>249999.4589528105</v>
+        <v>286500.9199392765</v>
       </c>
       <c r="AE28" t="n">
-        <v>342060.2889368022</v>
+        <v>392003.1981894537</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.057830966546656e-06</v>
+        <v>5.657787872380689e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.969075520833333</v>
       </c>
       <c r="AH28" t="n">
-        <v>309414.5350454066</v>
+        <v>354590.9631341957</v>
       </c>
     </row>
     <row r="29">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>250.2711694347247</v>
+        <v>286.7726304211907</v>
       </c>
       <c r="AB29" t="n">
-        <v>342.4320552051776</v>
+        <v>392.3749644578293</v>
       </c>
       <c r="AC29" t="n">
-        <v>309.7508204629055</v>
+        <v>354.9272485516947</v>
       </c>
       <c r="AD29" t="n">
-        <v>250271.1694347247</v>
+        <v>286772.6304211908</v>
       </c>
       <c r="AE29" t="n">
-        <v>342432.0552051776</v>
+        <v>392374.9644578293</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.056430476042605e-06</v>
+        <v>5.655196598279571e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4.972330729166667</v>
       </c>
       <c r="AH29" t="n">
-        <v>309750.8204629055</v>
+        <v>354927.2485516947</v>
       </c>
     </row>
     <row r="30">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>251.0218034678171</v>
+        <v>287.523264454283</v>
       </c>
       <c r="AB30" t="n">
-        <v>343.4591058048903</v>
+        <v>393.4020150575426</v>
       </c>
       <c r="AC30" t="n">
-        <v>310.6798507948566</v>
+        <v>355.8562788836458</v>
       </c>
       <c r="AD30" t="n">
-        <v>251021.8034678171</v>
+        <v>287523.2644542831</v>
       </c>
       <c r="AE30" t="n">
-        <v>343459.1058048903</v>
+        <v>393402.0150575426</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.056523842076208e-06</v>
+        <v>5.655369349886312e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>4.972330729166667</v>
       </c>
       <c r="AH30" t="n">
-        <v>310679.8507948566</v>
+        <v>355856.2788836458</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.9697211843096</v>
+        <v>705.0246592237296</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.2632000998082</v>
+        <v>964.6458422426982</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.343343809619</v>
+        <v>872.5813969479971</v>
       </c>
       <c r="AD2" t="n">
-        <v>657969.7211843096</v>
+        <v>705024.6592237296</v>
       </c>
       <c r="AE2" t="n">
-        <v>900263.2000998082</v>
+        <v>964645.8422426982</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.707541339294402e-06</v>
+        <v>3.254837321645778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>814343.343809619</v>
+        <v>872581.396947997</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.1810750502861</v>
+        <v>412.3869601024172</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.0757869384375</v>
+        <v>564.2460320407943</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.8222381499483</v>
+        <v>510.3951826670998</v>
       </c>
       <c r="AD3" t="n">
-        <v>377181.0750502861</v>
+        <v>412386.9601024172</v>
       </c>
       <c r="AE3" t="n">
-        <v>516075.7869384375</v>
+        <v>564246.0320407943</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.427878649575394e-06</v>
+        <v>4.627911406426264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.474609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>466822.2381499483</v>
+        <v>510395.1826670998</v>
       </c>
     </row>
     <row r="4">
@@ -10779,28 +10779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.6394449980882</v>
+        <v>352.9305813962399</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.6083019096921</v>
+        <v>482.8951916646982</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.1298955520131</v>
+        <v>436.8083523198768</v>
       </c>
       <c r="AD4" t="n">
-        <v>317639.4449980882</v>
+        <v>352930.5813962399</v>
       </c>
       <c r="AE4" t="n">
-        <v>434608.3019096921</v>
+        <v>482895.1916646982</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692523893631431e-06</v>
+        <v>5.132366084932369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.838216145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>393129.8955520131</v>
+        <v>436808.3523198768</v>
       </c>
     </row>
     <row r="5">
@@ -10885,28 +10885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>296.3770572912771</v>
+        <v>331.6681936894287</v>
       </c>
       <c r="AB5" t="n">
-        <v>405.5161650188904</v>
+        <v>453.8030547738963</v>
       </c>
       <c r="AC5" t="n">
-        <v>366.8142713749988</v>
+        <v>410.4927281428626</v>
       </c>
       <c r="AD5" t="n">
-        <v>296377.0572912771</v>
+        <v>331668.1936894287</v>
       </c>
       <c r="AE5" t="n">
-        <v>405516.1650188904</v>
+        <v>453803.0547738964</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.833346070943e-06</v>
+        <v>5.400794888312626e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.548502604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>366814.2713749988</v>
+        <v>410492.7281428626</v>
       </c>
     </row>
     <row r="6">
@@ -10991,28 +10991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.0107344346452</v>
+        <v>320.1312786322047</v>
       </c>
       <c r="AB6" t="n">
-        <v>389.9642606396725</v>
+        <v>438.0177386198316</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.7466189224988</v>
+        <v>396.2139404077114</v>
       </c>
       <c r="AD6" t="n">
-        <v>285010.7344346452</v>
+        <v>320131.2786322047</v>
       </c>
       <c r="AE6" t="n">
-        <v>389964.2606396725</v>
+        <v>438017.7386198316</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.91370550271476e-06</v>
+        <v>5.553972367333457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.3955078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>352746.6189224988</v>
+        <v>396213.9404077114</v>
       </c>
     </row>
     <row r="7">
@@ -11097,28 +11097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.8466549078493</v>
+        <v>311.9671991054088</v>
       </c>
       <c r="AB7" t="n">
-        <v>378.7938068573416</v>
+        <v>426.8472848375006</v>
       </c>
       <c r="AC7" t="n">
-        <v>342.6422575713231</v>
+        <v>386.1095790565357</v>
       </c>
       <c r="AD7" t="n">
-        <v>276846.6549078493</v>
+        <v>311967.1991054089</v>
       </c>
       <c r="AE7" t="n">
-        <v>378793.8068573416</v>
+        <v>426847.2848375007</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.970787743312248e-06</v>
+        <v>5.66277992755138e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.291341145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>342642.2575713231</v>
+        <v>386109.5790565357</v>
       </c>
     </row>
     <row r="8">
@@ -11203,28 +11203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>270.0065854849851</v>
+        <v>293.5340992589707</v>
       </c>
       <c r="AB8" t="n">
-        <v>369.4349221104132</v>
+        <v>401.6263044166322</v>
       </c>
       <c r="AC8" t="n">
-        <v>334.1765716493642</v>
+        <v>363.2956536091666</v>
       </c>
       <c r="AD8" t="n">
-        <v>270006.5854849851</v>
+        <v>293534.0992589707</v>
       </c>
       <c r="AE8" t="n">
-        <v>369434.9221104132</v>
+        <v>401626.3044166322</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.016859196383317e-06</v>
+        <v>5.750599227422698e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.211588541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>334176.5716493643</v>
+        <v>363295.6536091666</v>
       </c>
     </row>
     <row r="9">
@@ -11309,28 +11309,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>264.9388828594035</v>
+        <v>288.466396633389</v>
       </c>
       <c r="AB9" t="n">
-        <v>362.5010678068313</v>
+        <v>394.6924501130504</v>
       </c>
       <c r="AC9" t="n">
-        <v>327.9044746687907</v>
+        <v>357.023556628593</v>
       </c>
       <c r="AD9" t="n">
-        <v>264938.8828594034</v>
+        <v>288466.3966333889</v>
       </c>
       <c r="AE9" t="n">
-        <v>362501.0678068313</v>
+        <v>394692.4501130504</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.052402791205442e-06</v>
+        <v>5.818350804681912e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>327904.4746687906</v>
+        <v>357023.556628593</v>
       </c>
     </row>
     <row r="10">
@@ -11415,28 +11415,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>261.6464889876985</v>
+        <v>285.1740027616841</v>
       </c>
       <c r="AB10" t="n">
-        <v>357.9962692613983</v>
+        <v>390.1876515676174</v>
       </c>
       <c r="AC10" t="n">
-        <v>323.8296077740093</v>
+        <v>352.9486897338116</v>
       </c>
       <c r="AD10" t="n">
-        <v>261646.4889876986</v>
+        <v>285174.0027616841</v>
       </c>
       <c r="AE10" t="n">
-        <v>357996.2692613982</v>
+        <v>390187.6515676174</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.071333618882443e-06</v>
+        <v>5.85443588387432e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.118815104166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>323829.6077740093</v>
+        <v>352948.6897338117</v>
       </c>
     </row>
     <row r="11">
@@ -11521,28 +11521,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>258.0743596442635</v>
+        <v>281.6018734182523</v>
       </c>
       <c r="AB11" t="n">
-        <v>353.1087243023191</v>
+        <v>385.3001066087096</v>
       </c>
       <c r="AC11" t="n">
-        <v>319.4085232462185</v>
+        <v>348.5276052060696</v>
       </c>
       <c r="AD11" t="n">
-        <v>258074.3596442635</v>
+        <v>281601.8734182523</v>
       </c>
       <c r="AE11" t="n">
-        <v>353108.7243023191</v>
+        <v>385300.1066087096</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.091133719258899e-06</v>
+        <v>5.892177930988828e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.086263020833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>319408.5232462185</v>
+        <v>348527.6052060696</v>
       </c>
     </row>
     <row r="12">
@@ -11627,28 +11627,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>254.9720621718272</v>
+        <v>278.499575945816</v>
       </c>
       <c r="AB12" t="n">
-        <v>348.8640240368289</v>
+        <v>381.0554063432172</v>
       </c>
       <c r="AC12" t="n">
-        <v>315.568931216591</v>
+        <v>344.6880131764415</v>
       </c>
       <c r="AD12" t="n">
-        <v>254972.0621718272</v>
+        <v>278499.575945816</v>
       </c>
       <c r="AE12" t="n">
-        <v>348864.0240368289</v>
+        <v>381055.4063432172</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.105042082450164e-06</v>
+        <v>5.918689417742433e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.0634765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>315568.931216591</v>
+        <v>344688.0131764415</v>
       </c>
     </row>
     <row r="13">
@@ -11733,28 +11733,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>252.3117389979846</v>
+        <v>275.8392527719732</v>
       </c>
       <c r="AB13" t="n">
-        <v>345.224052505204</v>
+        <v>377.4154348115904</v>
       </c>
       <c r="AC13" t="n">
-        <v>312.2763534592111</v>
+        <v>341.3954354190611</v>
       </c>
       <c r="AD13" t="n">
-        <v>252311.7389979846</v>
+        <v>275839.2527719733</v>
       </c>
       <c r="AE13" t="n">
-        <v>345224.052505204</v>
+        <v>377415.4348115904</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.11895044564143e-06</v>
+        <v>5.945200904496039e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.040690104166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>312276.3534592111</v>
+        <v>341395.4354190611</v>
       </c>
     </row>
     <row r="14">
@@ -11839,28 +11839,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>249.9410894333813</v>
+        <v>273.4686032073699</v>
       </c>
       <c r="AB14" t="n">
-        <v>341.9804251852378</v>
+        <v>374.1718074916226</v>
       </c>
       <c r="AC14" t="n">
-        <v>309.3422933782019</v>
+        <v>338.4613753380514</v>
       </c>
       <c r="AD14" t="n">
-        <v>249941.0894333813</v>
+        <v>273468.6032073699</v>
       </c>
       <c r="AE14" t="n">
-        <v>341980.4251852378</v>
+        <v>374171.8074916226</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.132086121988737e-06</v>
+        <v>5.970239530874444e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH14" t="n">
-        <v>309342.2933782019</v>
+        <v>338461.3753380514</v>
       </c>
     </row>
     <row r="15">
@@ -11945,28 +11945,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>246.5311866595815</v>
+        <v>270.0587004335701</v>
       </c>
       <c r="AB15" t="n">
-        <v>337.314845775834</v>
+        <v>369.5062280822164</v>
       </c>
       <c r="AC15" t="n">
-        <v>305.1219903194483</v>
+        <v>334.2410722792971</v>
       </c>
       <c r="AD15" t="n">
-        <v>246531.1866595815</v>
+        <v>270058.7004335701</v>
       </c>
       <c r="AE15" t="n">
-        <v>337314.845775834</v>
+        <v>369506.2280822163</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.140199333850309e-06</v>
+        <v>5.985704564814047e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>305121.9903194483</v>
+        <v>334241.0722792971</v>
       </c>
     </row>
     <row r="16">
@@ -12051,28 +12051,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>231.8690049265606</v>
+        <v>267.0748004701435</v>
       </c>
       <c r="AB16" t="n">
-        <v>317.2534018789192</v>
+        <v>365.4235245118805</v>
       </c>
       <c r="AC16" t="n">
-        <v>286.9751824716353</v>
+        <v>330.5480162076037</v>
       </c>
       <c r="AD16" t="n">
-        <v>231869.0049265606</v>
+        <v>267074.8004701436</v>
       </c>
       <c r="AE16" t="n">
-        <v>317253.4018789192</v>
+        <v>365423.5245118805</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.155266727307514e-06</v>
+        <v>6.014425342130453e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.982096354166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>286975.1824716353</v>
+        <v>330548.0162076037</v>
       </c>
     </row>
     <row r="17">
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>230.0497077764893</v>
+        <v>265.2555033200722</v>
       </c>
       <c r="AB17" t="n">
-        <v>314.7641592564671</v>
+        <v>362.9342818894272</v>
       </c>
       <c r="AC17" t="n">
-        <v>284.7235096713953</v>
+        <v>328.2963434073633</v>
       </c>
       <c r="AD17" t="n">
-        <v>230049.7077764893</v>
+        <v>265255.5033200722</v>
       </c>
       <c r="AE17" t="n">
-        <v>314764.1592564671</v>
+        <v>362934.2818894272</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.161255050348198e-06</v>
+        <v>6.025840010038255e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.972330729166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>284723.5096713953</v>
+        <v>328296.3434073633</v>
       </c>
     </row>
     <row r="18">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>226.8101741873121</v>
+        <v>262.015969730895</v>
       </c>
       <c r="AB18" t="n">
-        <v>310.3316864816218</v>
+        <v>358.5018091145796</v>
       </c>
       <c r="AC18" t="n">
-        <v>280.7140658771652</v>
+        <v>324.2868996131326</v>
       </c>
       <c r="AD18" t="n">
-        <v>226810.1741873121</v>
+        <v>262015.969730895</v>
       </c>
       <c r="AE18" t="n">
-        <v>310331.6864816218</v>
+        <v>358501.8091145796</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.17014094905373e-06</v>
+        <v>6.04277790435306e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.959309895833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>280714.0658771652</v>
+        <v>324286.8996131326</v>
       </c>
     </row>
     <row r="19">
@@ -12369,28 +12369,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>225.5670572149724</v>
+        <v>260.7728527585552</v>
       </c>
       <c r="AB19" t="n">
-        <v>308.6307989976173</v>
+        <v>356.8009216305742</v>
       </c>
       <c r="AC19" t="n">
-        <v>279.175508707423</v>
+        <v>322.7483424433901</v>
       </c>
       <c r="AD19" t="n">
-        <v>225567.0572149724</v>
+        <v>260772.8527585552</v>
       </c>
       <c r="AE19" t="n">
-        <v>308630.7989976173</v>
+        <v>356800.9216305742</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.167822888521851e-06</v>
+        <v>6.038359323227458e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.962565104166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>279175.508707423</v>
+        <v>322748.3424433901</v>
       </c>
     </row>
     <row r="20">
@@ -12475,28 +12475,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>224.7233931369143</v>
+        <v>259.9291886804972</v>
       </c>
       <c r="AB20" t="n">
-        <v>307.4764605861865</v>
+        <v>355.6465832191428</v>
       </c>
       <c r="AC20" t="n">
-        <v>278.1313387338547</v>
+        <v>321.7041724698216</v>
       </c>
       <c r="AD20" t="n">
-        <v>224723.3931369143</v>
+        <v>259929.1886804972</v>
       </c>
       <c r="AE20" t="n">
-        <v>307476.4605861866</v>
+        <v>355646.5832191428</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.175356585250454e-06</v>
+        <v>6.052719711885662e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.951171875</v>
       </c>
       <c r="AH20" t="n">
-        <v>278131.3387338547</v>
+        <v>321704.1724698216</v>
       </c>
     </row>
     <row r="21">
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>225.2914024514613</v>
+        <v>260.4971979950441</v>
       </c>
       <c r="AB21" t="n">
-        <v>308.2536359891517</v>
+        <v>356.4237586221084</v>
       </c>
       <c r="AC21" t="n">
-        <v>278.8343416071336</v>
+        <v>322.4071753431007</v>
       </c>
       <c r="AD21" t="n">
-        <v>225291.4024514613</v>
+        <v>260497.1979950441</v>
       </c>
       <c r="AE21" t="n">
-        <v>308253.6359891517</v>
+        <v>356423.7586221084</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.174777070117484e-06</v>
+        <v>6.05161506660426e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.951171875</v>
       </c>
       <c r="AH21" t="n">
-        <v>278834.3416071336</v>
+        <v>322407.1753431007</v>
       </c>
     </row>
     <row r="22">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>226.1407916481277</v>
+        <v>261.3465871917105</v>
       </c>
       <c r="AB22" t="n">
-        <v>309.4158077604367</v>
+        <v>357.585930393394</v>
       </c>
       <c r="AC22" t="n">
-        <v>279.8855973356859</v>
+        <v>323.4584310716531</v>
       </c>
       <c r="AD22" t="n">
-        <v>226140.7916481277</v>
+        <v>261346.5871917105</v>
       </c>
       <c r="AE22" t="n">
-        <v>309415.8077604367</v>
+        <v>357585.930393394</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.17468048426199e-06</v>
+        <v>6.051430959057361e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.951171875</v>
       </c>
       <c r="AH22" t="n">
-        <v>279885.5973356859</v>
+        <v>323458.4310716531</v>
       </c>
     </row>
   </sheetData>
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.4108993435441</v>
+        <v>310.8865676716884</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.3023192207395</v>
+        <v>425.36871723579</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.8159224389863</v>
+        <v>384.7721238715498</v>
       </c>
       <c r="AD2" t="n">
-        <v>279410.8993435441</v>
+        <v>310886.5676716884</v>
       </c>
       <c r="AE2" t="n">
-        <v>382302.3192207395</v>
+        <v>425368.71723579</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.697195777639196e-06</v>
+        <v>5.744321142322182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>345815.9224389863</v>
+        <v>384772.1238715497</v>
       </c>
     </row>
     <row r="3">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.9866093916845</v>
+        <v>242.2063446646644</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.6811870418446</v>
+        <v>331.3974061598284</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.1298597172466</v>
+        <v>299.7693028352138</v>
       </c>
       <c r="AD3" t="n">
-        <v>210986.6093916844</v>
+        <v>242206.3446646644</v>
       </c>
       <c r="AE3" t="n">
-        <v>288681.1870418446</v>
+        <v>331397.4061598285</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.205142860673382e-06</v>
+        <v>6.826115497942914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.4736328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>261129.8597172466</v>
+        <v>299769.3028352138</v>
       </c>
     </row>
     <row r="4">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.6428682086457</v>
+        <v>215.5698426995783</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.3189593202494</v>
+        <v>294.9521690516849</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.9018516238096</v>
+        <v>266.8023480054484</v>
       </c>
       <c r="AD4" t="n">
-        <v>194642.8682086457</v>
+        <v>215569.8426995783</v>
       </c>
       <c r="AE4" t="n">
-        <v>266318.9593202494</v>
+        <v>294952.1690516849</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.37661406990474e-06</v>
+        <v>7.191304299087108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>240901.8516238096</v>
+        <v>266802.3480054484</v>
       </c>
     </row>
     <row r="5">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.8374053923249</v>
+        <v>205.7643798832574</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.902692508477</v>
+        <v>281.5359022399125</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.7660144866998</v>
+        <v>254.6665108683385</v>
       </c>
       <c r="AD5" t="n">
-        <v>184837.4053923249</v>
+        <v>205764.3798832574</v>
       </c>
       <c r="AE5" t="n">
-        <v>252902.692508477</v>
+        <v>281535.9022399125</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.464774628767876e-06</v>
+        <v>7.379063217588646e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.0634765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>228766.0144866998</v>
+        <v>254666.5108683385</v>
       </c>
     </row>
     <row r="6">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.5620612465142</v>
+        <v>198.8670478655148</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.2658045137957</v>
+        <v>272.0986682844288</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.3849979076427</v>
+        <v>246.1299532763221</v>
       </c>
       <c r="AD6" t="n">
-        <v>167562.0612465142</v>
+        <v>198867.0478655148</v>
       </c>
       <c r="AE6" t="n">
-        <v>229265.8045137957</v>
+        <v>272098.6682844288</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.514998125626339e-06</v>
+        <v>7.486026122260675e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.990234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>207384.9979076427</v>
+        <v>246129.9532763221</v>
       </c>
     </row>
     <row r="7">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.3010754770025</v>
+        <v>196.6060620960031</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.1722240362989</v>
+        <v>269.0050878069321</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.5866644090497</v>
+        <v>243.3316197777291</v>
       </c>
       <c r="AD7" t="n">
-        <v>165301.0754770025</v>
+        <v>196606.0620960031</v>
       </c>
       <c r="AE7" t="n">
-        <v>226172.2240362989</v>
+        <v>269005.087806932</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.530841160043063e-06</v>
+        <v>7.519767639399703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>204586.6644090498</v>
+        <v>243331.6197777292</v>
       </c>
     </row>
     <row r="8">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>166.2300768970422</v>
+        <v>197.5350635160428</v>
       </c>
       <c r="AB8" t="n">
-        <v>227.4433247638468</v>
+        <v>270.2761885344799</v>
       </c>
       <c r="AC8" t="n">
-        <v>205.7364530671619</v>
+        <v>244.4814084358413</v>
       </c>
       <c r="AD8" t="n">
-        <v>166230.0768970422</v>
+        <v>197535.0635160428</v>
       </c>
       <c r="AE8" t="n">
-        <v>227443.3247638468</v>
+        <v>270276.1885344799</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.531272263020389e-06</v>
+        <v>7.520685775920494e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>205736.4530671619</v>
+        <v>244481.4084358413</v>
       </c>
     </row>
   </sheetData>
@@ -13917,28 +13917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.5555278382138</v>
+        <v>427.272119822423</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.7975944638897</v>
+        <v>584.6125642566066</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.7116486063052</v>
+        <v>528.8179616328424</v>
       </c>
       <c r="AD2" t="n">
-        <v>383555.5278382138</v>
+        <v>427272.119822423</v>
       </c>
       <c r="AE2" t="n">
-        <v>524797.5944638897</v>
+        <v>584612.5642566065</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304720250683757e-06</v>
+        <v>4.679378923651327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.281901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>474711.6486063052</v>
+        <v>528817.9616328424</v>
       </c>
     </row>
     <row r="3">
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.0470505258217</v>
+        <v>294.9624386644227</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.5443352293863</v>
+        <v>403.580621405059</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.3253670952279</v>
+        <v>365.0634533271191</v>
       </c>
       <c r="AD3" t="n">
-        <v>262047.0505258217</v>
+        <v>294962.4386644227</v>
       </c>
       <c r="AE3" t="n">
-        <v>358544.3352293863</v>
+        <v>403580.621405059</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.895515537062226e-06</v>
+        <v>5.878897611636032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.7958984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>324325.3670952279</v>
+        <v>365063.4533271191</v>
       </c>
     </row>
     <row r="4">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.7928907866827</v>
+        <v>270.5376867246944</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.3587238561335</v>
+        <v>370.1615982571165</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.3069438952378</v>
+        <v>334.8338948445226</v>
       </c>
       <c r="AD4" t="n">
-        <v>237792.8907866827</v>
+        <v>270537.6867246944</v>
       </c>
       <c r="AE4" t="n">
-        <v>325358.7238561335</v>
+        <v>370161.5982571165</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.101829911938896e-06</v>
+        <v>6.297787122047444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>294306.9438952378</v>
+        <v>334833.8948445226</v>
       </c>
     </row>
     <row r="5">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.2784586920226</v>
+        <v>247.222140292974</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.2359257664493</v>
+        <v>338.2602390197641</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.8183216232295</v>
+        <v>305.9771565590458</v>
       </c>
       <c r="AD5" t="n">
-        <v>225278.4586920226</v>
+        <v>247222.140292974</v>
       </c>
       <c r="AE5" t="n">
-        <v>308235.9257664493</v>
+        <v>338260.2390197641</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.211740518444908e-06</v>
+        <v>6.520943652831336e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.224609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>278818.3216232295</v>
+        <v>305977.1565590458</v>
       </c>
     </row>
     <row r="6">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>217.5746000933948</v>
+        <v>239.5182816943462</v>
       </c>
       <c r="AB6" t="n">
-        <v>297.6951665615576</v>
+        <v>327.7194798148723</v>
       </c>
       <c r="AC6" t="n">
-        <v>269.2835576828008</v>
+        <v>296.4423926186171</v>
       </c>
       <c r="AD6" t="n">
-        <v>217574.6000933948</v>
+        <v>239518.2816943462</v>
       </c>
       <c r="AE6" t="n">
-        <v>297695.1665615576</v>
+        <v>327719.4798148723</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.273603899217522e-06</v>
+        <v>6.64654770392921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.126953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>269283.5576828008</v>
+        <v>296442.3926186171</v>
       </c>
     </row>
     <row r="7">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.5616163656756</v>
+        <v>233.5052979666271</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.4679369511764</v>
+        <v>319.4922502044911</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.8415233194424</v>
+        <v>289.0003582552588</v>
       </c>
       <c r="AD7" t="n">
-        <v>211561.6163656756</v>
+        <v>233505.2979666271</v>
       </c>
       <c r="AE7" t="n">
-        <v>289467.9369511764</v>
+        <v>319492.2502044911</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.317939322104563e-06</v>
+        <v>6.736563940549353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.05859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>261841.5233194425</v>
+        <v>289000.3582552588</v>
       </c>
     </row>
     <row r="8">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>206.428256939501</v>
+        <v>228.3719385404524</v>
       </c>
       <c r="AB8" t="n">
-        <v>282.4442481164532</v>
+        <v>312.468561369768</v>
       </c>
       <c r="AC8" t="n">
-        <v>255.4881654892938</v>
+        <v>282.6470004251101</v>
       </c>
       <c r="AD8" t="n">
-        <v>206428.256939501</v>
+        <v>228371.9385404525</v>
       </c>
       <c r="AE8" t="n">
-        <v>282444.2481164532</v>
+        <v>312468.561369768</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.350726913914049e-06</v>
+        <v>6.803134087631227e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.008138020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>255488.1654892938</v>
+        <v>282647.0004251101</v>
       </c>
     </row>
     <row r="9">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>190.5167320522998</v>
+        <v>223.3467793363289</v>
       </c>
       <c r="AB9" t="n">
-        <v>260.6733977988598</v>
+        <v>305.5929168523118</v>
       </c>
       <c r="AC9" t="n">
-        <v>235.7950945704243</v>
+        <v>276.42755777037</v>
       </c>
       <c r="AD9" t="n">
-        <v>190516.7320522998</v>
+        <v>223346.7793363289</v>
       </c>
       <c r="AE9" t="n">
-        <v>260673.3977988597</v>
+        <v>305592.9168523118</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.376709533838547e-06</v>
+        <v>6.855887789092335e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.969075520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>235795.0945704243</v>
+        <v>276427.55777037</v>
       </c>
     </row>
     <row r="10">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>187.6389161833344</v>
+        <v>220.4689634673634</v>
       </c>
       <c r="AB10" t="n">
-        <v>256.7358431666675</v>
+        <v>301.6553622201195</v>
       </c>
       <c r="AC10" t="n">
-        <v>232.2333346259345</v>
+        <v>272.8657978258803</v>
       </c>
       <c r="AD10" t="n">
-        <v>187638.9161833344</v>
+        <v>220468.9634673634</v>
       </c>
       <c r="AE10" t="n">
-        <v>256735.8431666674</v>
+        <v>301655.3622201195</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.386504569127544e-06</v>
+        <v>6.875775097182831e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.9560546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>232233.3346259345</v>
+        <v>272865.7978258803</v>
       </c>
     </row>
     <row r="11">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>187.2013350279093</v>
+        <v>220.0313823119383</v>
       </c>
       <c r="AB11" t="n">
-        <v>256.1371253250971</v>
+        <v>301.056644378549</v>
       </c>
       <c r="AC11" t="n">
-        <v>231.6917575748577</v>
+        <v>272.3242207748035</v>
       </c>
       <c r="AD11" t="n">
-        <v>187201.3350279093</v>
+        <v>220031.3823119383</v>
       </c>
       <c r="AE11" t="n">
-        <v>256137.1253250971</v>
+        <v>301056.644378549</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.393309541012532e-06</v>
+        <v>6.889591542803598e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.944661458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>231691.7575748577</v>
+        <v>272324.2207748034</v>
       </c>
     </row>
     <row r="12">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>188.0614624493853</v>
+        <v>220.8915097334142</v>
       </c>
       <c r="AB12" t="n">
-        <v>257.3139896093035</v>
+        <v>302.2335086627556</v>
       </c>
       <c r="AC12" t="n">
-        <v>232.7563035835193</v>
+        <v>273.388766783465</v>
       </c>
       <c r="AD12" t="n">
-        <v>188061.4624493853</v>
+        <v>220891.5097334142</v>
       </c>
       <c r="AE12" t="n">
-        <v>257313.9896093035</v>
+        <v>302233.5086627556</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.393515752281774e-06</v>
+        <v>6.890010222973925e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.944661458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>232756.3035835193</v>
+        <v>273388.766783465</v>
       </c>
     </row>
   </sheetData>
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.2866660339918</v>
+        <v>251.3408795789513</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.7741789462712</v>
+        <v>343.8956798167885</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.8778362539576</v>
+        <v>311.0747587957948</v>
       </c>
       <c r="AD2" t="n">
-        <v>221286.6660339918</v>
+        <v>251340.8795789513</v>
       </c>
       <c r="AE2" t="n">
-        <v>302774.1789462712</v>
+        <v>343895.6798167885</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.034871395395957e-06</v>
+        <v>6.758065814201624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>273877.8362539576</v>
+        <v>311074.7587957948</v>
       </c>
     </row>
     <row r="3">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.8234577304066</v>
+        <v>194.9165238329444</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.2011675332559</v>
+        <v>266.6933870182488</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.3721438248984</v>
+        <v>241.2405444678246</v>
       </c>
       <c r="AD3" t="n">
-        <v>174823.4577304066</v>
+        <v>194916.5238329444</v>
       </c>
       <c r="AE3" t="n">
-        <v>239201.1675332559</v>
+        <v>266693.3870182487</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.458878065471562e-06</v>
+        <v>7.702245849763743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216372.1438248984</v>
+        <v>241240.5444678246</v>
       </c>
     </row>
     <row r="4">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.4061721487411</v>
+        <v>181.4992382512788</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.8430454715667</v>
+        <v>248.3352649565595</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.7660951669848</v>
+        <v>224.634495809911</v>
       </c>
       <c r="AD4" t="n">
-        <v>161406.1721487411</v>
+        <v>181499.2382512788</v>
       </c>
       <c r="AE4" t="n">
-        <v>220843.0454715667</v>
+        <v>248335.2649565595</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.604168629821651e-06</v>
+        <v>8.025779557831228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.055338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>199766.0951669848</v>
+        <v>224634.495809911</v>
       </c>
     </row>
     <row r="5">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.6419538411742</v>
+        <v>179.7350199437119</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.4291641513363</v>
+        <v>245.921383636329</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.5825912920527</v>
+        <v>222.4509919349789</v>
       </c>
       <c r="AD5" t="n">
-        <v>159641.9538411742</v>
+        <v>179735.0199437119</v>
       </c>
       <c r="AE5" t="n">
-        <v>218429.1641513363</v>
+        <v>245921.383636329</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.623197440252711e-06</v>
+        <v>8.068153001877047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.027669270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>197582.5912920527</v>
+        <v>222450.9919349789</v>
       </c>
     </row>
     <row r="6">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.7415137047284</v>
+        <v>180.8345798072662</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.933630465808</v>
+        <v>247.4258499508008</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.9434734530034</v>
+        <v>223.8118740959296</v>
       </c>
       <c r="AD6" t="n">
-        <v>160741.5137047284</v>
+        <v>180834.5798072662</v>
       </c>
       <c r="AE6" t="n">
-        <v>219933.630465808</v>
+        <v>247425.8499508008</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.622749703536685e-06</v>
+        <v>8.067155979664202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.029296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>198943.4734530034</v>
+        <v>223811.8740959296</v>
       </c>
     </row>
   </sheetData>
@@ -15995,28 +15995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.3517136479696</v>
+        <v>773.7378652859288</v>
       </c>
       <c r="AB2" t="n">
-        <v>977.4075295865438</v>
+        <v>1058.662282189704</v>
       </c>
       <c r="AC2" t="n">
-        <v>884.1251267628868</v>
+        <v>957.6250398193632</v>
       </c>
       <c r="AD2" t="n">
-        <v>714351.7136479696</v>
+        <v>773737.8652859288</v>
       </c>
       <c r="AE2" t="n">
-        <v>977407.5295865438</v>
+        <v>1058662.282189704</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.622136872365484e-06</v>
+        <v>3.067077463802122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6044921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>884125.1267628868</v>
+        <v>957625.0398193633</v>
       </c>
     </row>
     <row r="3">
@@ -16101,28 +16101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.053492012241</v>
+        <v>430.7705238495881</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.5296163011726</v>
+        <v>589.3992349852666</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.9422283594691</v>
+        <v>533.1477992252939</v>
       </c>
       <c r="AD3" t="n">
-        <v>395053.4920122409</v>
+        <v>430770.5238495881</v>
       </c>
       <c r="AE3" t="n">
-        <v>540529.6163011726</v>
+        <v>589399.2349852666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364336040850877e-06</v>
+        <v>4.470400686456377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>488942.2283594692</v>
+        <v>533147.7992252938</v>
       </c>
     </row>
     <row r="4">
@@ -16207,28 +16207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.5262502491024</v>
+        <v>367.157941231878</v>
       </c>
       <c r="AB4" t="n">
-        <v>453.6088414967393</v>
+        <v>502.3616930586356</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.3170503082974</v>
+        <v>454.4169981421832</v>
       </c>
       <c r="AD4" t="n">
-        <v>331526.2502491024</v>
+        <v>367157.941231878</v>
       </c>
       <c r="AE4" t="n">
-        <v>453608.8414967393</v>
+        <v>502361.6930586356</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632155653105472e-06</v>
+        <v>4.976784279052018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.91796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>410317.0503082974</v>
+        <v>454416.9981421832</v>
       </c>
     </row>
     <row r="5">
@@ -16313,28 +16313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.7183330548482</v>
+        <v>344.3500240376237</v>
       </c>
       <c r="AB5" t="n">
-        <v>422.4020429772692</v>
+        <v>471.1548945391655</v>
       </c>
       <c r="AC5" t="n">
-        <v>382.0885848405086</v>
+        <v>426.1885326743944</v>
       </c>
       <c r="AD5" t="n">
-        <v>308718.3330548482</v>
+        <v>344350.0240376237</v>
       </c>
       <c r="AE5" t="n">
-        <v>422402.0429772692</v>
+        <v>471154.8945391655</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.774775818316103e-06</v>
+        <v>5.246445305845265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.615234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>382088.5848405086</v>
+        <v>426188.5326743944</v>
       </c>
     </row>
     <row r="6">
@@ -16419,28 +16419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.4453581772437</v>
+        <v>330.9064569594271</v>
       </c>
       <c r="AB6" t="n">
-        <v>404.2413731874061</v>
+        <v>452.7608129744555</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.6611438867299</v>
+        <v>409.5499564379647</v>
       </c>
       <c r="AD6" t="n">
-        <v>295445.3581772437</v>
+        <v>330906.4569594271</v>
       </c>
       <c r="AE6" t="n">
-        <v>404241.3731874061</v>
+        <v>452760.8129744555</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.865899574880211e-06</v>
+        <v>5.418738794105112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.436197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>365661.1438867298</v>
+        <v>409549.9564379647</v>
       </c>
     </row>
     <row r="7">
@@ -16525,28 +16525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>286.207224907049</v>
+        <v>321.6683236892324</v>
       </c>
       <c r="AB7" t="n">
-        <v>391.6013516894498</v>
+        <v>440.120791476499</v>
       </c>
       <c r="AC7" t="n">
-        <v>354.2274683001569</v>
+        <v>398.1162808513917</v>
       </c>
       <c r="AD7" t="n">
-        <v>286207.224907049</v>
+        <v>321668.3236892323</v>
       </c>
       <c r="AE7" t="n">
-        <v>391601.3516894497</v>
+        <v>440120.791476499</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.929073607792303e-06</v>
+        <v>5.538185960335678e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>354227.4683001569</v>
+        <v>398116.2808513917</v>
       </c>
     </row>
     <row r="8">
@@ -16631,28 +16631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.5903842510012</v>
+        <v>304.344934414736</v>
       </c>
       <c r="AB8" t="n">
-        <v>383.9161425063241</v>
+        <v>416.4181660171366</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.27572469521</v>
+        <v>376.675800699027</v>
       </c>
       <c r="AD8" t="n">
-        <v>280590.3842510012</v>
+        <v>304344.934414736</v>
       </c>
       <c r="AE8" t="n">
-        <v>383916.1425063241</v>
+        <v>416418.1660171367</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.966882309307874e-06</v>
+        <v>5.609673279519124e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.250651041666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>347275.72469521</v>
+        <v>376675.800699027</v>
       </c>
     </row>
     <row r="9">
@@ -16737,28 +16737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>275.8090475988095</v>
+        <v>299.5635977625442</v>
       </c>
       <c r="AB9" t="n">
-        <v>377.3741067611095</v>
+        <v>409.876130271922</v>
       </c>
       <c r="AC9" t="n">
-        <v>341.3580516597137</v>
+        <v>370.7581276635309</v>
       </c>
       <c r="AD9" t="n">
-        <v>275809.0475988095</v>
+        <v>299563.5977625442</v>
       </c>
       <c r="AE9" t="n">
-        <v>377374.1067611095</v>
+        <v>409876.130271922</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.998852198690659e-06</v>
+        <v>5.670120784853986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>341358.0516597137</v>
+        <v>370758.1276635309</v>
       </c>
     </row>
     <row r="10">
@@ -16843,28 +16843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>271.2540387083165</v>
+        <v>295.0085888720513</v>
       </c>
       <c r="AB10" t="n">
-        <v>371.1417426443272</v>
+        <v>403.6437661551398</v>
       </c>
       <c r="AC10" t="n">
-        <v>335.7204956270593</v>
+        <v>365.1205716308764</v>
       </c>
       <c r="AD10" t="n">
-        <v>271254.0387083165</v>
+        <v>295008.5888720513</v>
       </c>
       <c r="AE10" t="n">
-        <v>371141.7426443272</v>
+        <v>403643.7661551398</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.027184795269415e-06</v>
+        <v>5.723691029102845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.146484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>335720.4956270593</v>
+        <v>365120.5716308765</v>
       </c>
     </row>
     <row r="11">
@@ -16949,28 +16949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>267.7943255668678</v>
+        <v>291.5488757306026</v>
       </c>
       <c r="AB11" t="n">
-        <v>366.4080104924255</v>
+        <v>398.9100340032382</v>
       </c>
       <c r="AC11" t="n">
-        <v>331.4385442279003</v>
+        <v>360.8386202317175</v>
       </c>
       <c r="AD11" t="n">
-        <v>267794.3255668678</v>
+        <v>291548.8757306025</v>
       </c>
       <c r="AE11" t="n">
-        <v>366408.0104924255</v>
+        <v>398910.0340032382</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.048529960935168e-06</v>
+        <v>5.764049692844385e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>331438.5442279003</v>
+        <v>360838.6202317175</v>
       </c>
     </row>
     <row r="12">
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>265.1750766000023</v>
+        <v>288.9296267637371</v>
       </c>
       <c r="AB12" t="n">
-        <v>362.8242385028511</v>
+        <v>395.3262620136637</v>
       </c>
       <c r="AC12" t="n">
-        <v>328.1968024071552</v>
+        <v>357.5968784109724</v>
       </c>
       <c r="AD12" t="n">
-        <v>265175.0766000023</v>
+        <v>288929.6267637371</v>
       </c>
       <c r="AE12" t="n">
-        <v>362824.2385028511</v>
+        <v>395326.2620136637</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.061356203980956e-06</v>
+        <v>5.788301087200288e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.089518229166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>328196.8024071552</v>
+        <v>357596.8784109724</v>
       </c>
     </row>
     <row r="13">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>262.4854942278662</v>
+        <v>286.2400443916009</v>
       </c>
       <c r="AB13" t="n">
-        <v>359.1442332452945</v>
+        <v>391.6462567561072</v>
       </c>
       <c r="AC13" t="n">
-        <v>324.8680116864601</v>
+        <v>354.2680876902772</v>
       </c>
       <c r="AD13" t="n">
-        <v>262485.4942278662</v>
+        <v>286240.0443916009</v>
       </c>
       <c r="AE13" t="n">
-        <v>359144.2332452945</v>
+        <v>391646.2567561071</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.073608137636634e-06</v>
+        <v>5.811466598226821e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.068359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>324868.0116864601</v>
+        <v>354268.0876902772</v>
       </c>
     </row>
     <row r="14">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>259.1014967803114</v>
+        <v>282.8560469440462</v>
       </c>
       <c r="AB14" t="n">
-        <v>354.5140986461192</v>
+        <v>387.0161221569318</v>
       </c>
       <c r="AC14" t="n">
-        <v>320.6797706349953</v>
+        <v>350.0798466388125</v>
       </c>
       <c r="AD14" t="n">
-        <v>259101.4967803115</v>
+        <v>282856.0469440462</v>
       </c>
       <c r="AE14" t="n">
-        <v>354514.0986461192</v>
+        <v>387016.1221569318</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.090550264644878e-06</v>
+        <v>5.843500156443201e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.040690104166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>320679.7706349953</v>
+        <v>350079.8466388125</v>
       </c>
     </row>
     <row r="15">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>256.0666879215011</v>
+        <v>279.821238085239</v>
       </c>
       <c r="AB15" t="n">
-        <v>350.3617392790116</v>
+        <v>382.8637627899942</v>
       </c>
       <c r="AC15" t="n">
-        <v>316.9237066181168</v>
+        <v>346.3237826219824</v>
       </c>
       <c r="AD15" t="n">
-        <v>256066.6879215011</v>
+        <v>279821.238085239</v>
       </c>
       <c r="AE15" t="n">
-        <v>350361.7392790116</v>
+        <v>382863.7627899942</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.102802198300556e-06</v>
+        <v>5.866665667469734e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.021158854166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>316923.7066181168</v>
+        <v>346323.7826219824</v>
       </c>
     </row>
     <row r="16">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>253.6215920421338</v>
+        <v>277.3761422058718</v>
       </c>
       <c r="AB16" t="n">
-        <v>347.016251226846</v>
+        <v>379.5182747378269</v>
       </c>
       <c r="AC16" t="n">
-        <v>313.8975072502269</v>
+        <v>343.2975832540919</v>
       </c>
       <c r="AD16" t="n">
-        <v>253621.5920421339</v>
+        <v>277376.1422058718</v>
       </c>
       <c r="AE16" t="n">
-        <v>347016.251226846</v>
+        <v>379518.2747378268</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.11246973970074e-06</v>
+        <v>5.884944703514109e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.0048828125</v>
       </c>
       <c r="AH16" t="n">
-        <v>313897.5072502269</v>
+        <v>343297.5832540919</v>
       </c>
     </row>
     <row r="17">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>240.1020040016771</v>
+        <v>275.648354129884</v>
       </c>
       <c r="AB17" t="n">
-        <v>328.5181544277728</v>
+        <v>377.1542388676301</v>
       </c>
       <c r="AC17" t="n">
-        <v>297.1648428474094</v>
+        <v>341.1591676494016</v>
       </c>
       <c r="AD17" t="n">
-        <v>240102.0040016771</v>
+        <v>275648.354129884</v>
       </c>
       <c r="AE17" t="n">
-        <v>328518.1544277728</v>
+        <v>377154.2388676301</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.117734242443414e-06</v>
+        <v>5.894898634033323e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.996744791666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>297164.8428474094</v>
+        <v>341159.1676494016</v>
       </c>
     </row>
     <row r="18">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>237.6464086715773</v>
+        <v>273.1927587997842</v>
       </c>
       <c r="AB18" t="n">
-        <v>325.1583005639117</v>
+        <v>373.7943850037673</v>
       </c>
       <c r="AC18" t="n">
-        <v>294.1256487207297</v>
+        <v>338.1199735227214</v>
       </c>
       <c r="AD18" t="n">
-        <v>237646.4086715773</v>
+        <v>273192.7587997842</v>
       </c>
       <c r="AE18" t="n">
-        <v>325158.3005639117</v>
+        <v>373794.3850037673</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.127497502075282e-06</v>
+        <v>5.913358650632592e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.982096354166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>294125.6487207296</v>
+        <v>338119.9735227213</v>
       </c>
     </row>
     <row r="19">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>235.4165290415081</v>
+        <v>270.9628791697149</v>
       </c>
       <c r="AB19" t="n">
-        <v>322.1072808787061</v>
+        <v>370.7433653185602</v>
       </c>
       <c r="AC19" t="n">
-        <v>291.3658140721461</v>
+        <v>335.3601388741373</v>
       </c>
       <c r="AD19" t="n">
-        <v>235416.5290415081</v>
+        <v>270962.8791697149</v>
       </c>
       <c r="AE19" t="n">
-        <v>322107.2808787061</v>
+        <v>370743.3653185602</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.133719187134806e-06</v>
+        <v>5.925122386700754e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.970703125</v>
       </c>
       <c r="AH19" t="n">
-        <v>291365.8140721461</v>
+        <v>335360.1388741373</v>
       </c>
     </row>
     <row r="20">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>232.5349876386206</v>
+        <v>268.0813377668274</v>
       </c>
       <c r="AB20" t="n">
-        <v>318.1646288066428</v>
+        <v>366.8007132464948</v>
       </c>
       <c r="AC20" t="n">
-        <v>287.7994431802923</v>
+        <v>331.793767982283</v>
       </c>
       <c r="AD20" t="n">
-        <v>232534.9876386206</v>
+        <v>268081.3377668274</v>
       </c>
       <c r="AE20" t="n">
-        <v>318164.6288066428</v>
+        <v>366800.7132464948</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.140036590426016e-06</v>
+        <v>5.937067103323811e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH20" t="n">
-        <v>287799.4431802923</v>
+        <v>331793.767982283</v>
       </c>
     </row>
     <row r="21">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>232.5899789594275</v>
+        <v>268.1363290876344</v>
       </c>
       <c r="AB21" t="n">
-        <v>318.2398703578167</v>
+        <v>366.8759547976688</v>
       </c>
       <c r="AC21" t="n">
-        <v>287.8675037834244</v>
+        <v>331.861828585415</v>
       </c>
       <c r="AD21" t="n">
-        <v>232589.9789594275</v>
+        <v>268136.3290876343</v>
       </c>
       <c r="AE21" t="n">
-        <v>318239.8703578167</v>
+        <v>366875.9547976688</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.139366562804221e-06</v>
+        <v>5.935800239439547e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.962565104166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>287867.5037834244</v>
+        <v>331861.828585415</v>
       </c>
     </row>
     <row r="22">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>230.1525501014714</v>
+        <v>265.6989002296781</v>
       </c>
       <c r="AB22" t="n">
-        <v>314.9048726625907</v>
+        <v>363.5409571024411</v>
       </c>
       <c r="AC22" t="n">
-        <v>284.850793587531</v>
+        <v>328.8451183895212</v>
       </c>
       <c r="AD22" t="n">
-        <v>230152.5501014714</v>
+        <v>265698.9002296781</v>
       </c>
       <c r="AE22" t="n">
-        <v>314904.8726625907</v>
+        <v>363540.9571024411</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.14683258487565e-06</v>
+        <v>5.949916722721342e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.951171875</v>
       </c>
       <c r="AH22" t="n">
-        <v>284850.793587531</v>
+        <v>328845.1183895213</v>
       </c>
     </row>
     <row r="23">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>230.576119897872</v>
+        <v>266.1224700260788</v>
       </c>
       <c r="AB23" t="n">
-        <v>315.4844195446063</v>
+        <v>364.1205039844571</v>
       </c>
       <c r="AC23" t="n">
-        <v>285.3750293285265</v>
+        <v>329.3693541305167</v>
       </c>
       <c r="AD23" t="n">
-        <v>230576.119897872</v>
+        <v>266122.4700260788</v>
       </c>
       <c r="AE23" t="n">
-        <v>315484.4195446064</v>
+        <v>364120.5039844571</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.147694048960814e-06</v>
+        <v>5.951545547715394e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.949544270833333</v>
       </c>
       <c r="AH23" t="n">
-        <v>285375.0293285265</v>
+        <v>329369.3541305167</v>
       </c>
     </row>
     <row r="24">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>231.5138608849736</v>
+        <v>267.0602110131804</v>
       </c>
       <c r="AB24" t="n">
-        <v>316.7674781333708</v>
+        <v>365.4035625732221</v>
       </c>
       <c r="AC24" t="n">
-        <v>286.5356346063636</v>
+        <v>330.529959408354</v>
       </c>
       <c r="AD24" t="n">
-        <v>231513.8608849736</v>
+        <v>267060.2110131804</v>
       </c>
       <c r="AE24" t="n">
-        <v>316767.4781333708</v>
+        <v>365403.5625732221</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.1458754025588e-06</v>
+        <v>5.948106917172393e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.952799479166667</v>
       </c>
       <c r="AH24" t="n">
-        <v>286535.6346063636</v>
+        <v>330529.9594083541</v>
       </c>
     </row>
   </sheetData>
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0887829369956</v>
+        <v>211.4875498913915</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.1419060044327</v>
+        <v>289.3665959334785</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3641521683032</v>
+        <v>261.7498541462407</v>
       </c>
       <c r="AD2" t="n">
-        <v>182088.7829369956</v>
+        <v>211487.5498913915</v>
       </c>
       <c r="AE2" t="n">
-        <v>249141.9060044326</v>
+        <v>289366.5959334786</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243637510839054e-06</v>
+        <v>7.43625550051299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.748697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225364.1521683032</v>
+        <v>261749.8541462407</v>
       </c>
     </row>
     <row r="3">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.5176869807213</v>
+        <v>173.1169544588697</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.0496720492836</v>
+        <v>236.8662544715293</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.0028261555262</v>
+        <v>214.2600715887111</v>
       </c>
       <c r="AD3" t="n">
-        <v>153517.6869807213</v>
+        <v>173116.9544588696</v>
       </c>
       <c r="AE3" t="n">
-        <v>210049.6720492836</v>
+        <v>236866.2544715293</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.620053419181233e-06</v>
+        <v>8.299214095465868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>190002.8261555262</v>
+        <v>214260.0715887111</v>
       </c>
     </row>
     <row r="4">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.6417386017876</v>
+        <v>169.2410060799359</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.7464284824549</v>
+        <v>231.5630109047005</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.2057167115649</v>
+        <v>209.4629621447498</v>
       </c>
       <c r="AD4" t="n">
-        <v>149641.7386017876</v>
+        <v>169241.0060799359</v>
       </c>
       <c r="AE4" t="n">
-        <v>204746.4284824549</v>
+        <v>231563.0109047006</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.67274706429304e-06</v>
+        <v>8.420017794089824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.076497395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185205.7167115649</v>
+        <v>209462.9621447498</v>
       </c>
     </row>
   </sheetData>
@@ -19133,28 +19133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.3010478332122</v>
+        <v>552.7969591538196</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.1116741880928</v>
+        <v>756.3611871948985</v>
       </c>
       <c r="AC2" t="n">
-        <v>627.8666301954337</v>
+        <v>684.1751370486103</v>
       </c>
       <c r="AD2" t="n">
-        <v>507301.0478332122</v>
+        <v>552796.9591538196</v>
       </c>
       <c r="AE2" t="n">
-        <v>694111.6741880928</v>
+        <v>756361.1871948985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.980514899412576e-06</v>
+        <v>3.881781832263095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1787109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>627866.6301954337</v>
+        <v>684175.1370486103</v>
       </c>
     </row>
     <row r="3">
@@ -19239,28 +19239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.7963491512616</v>
+        <v>356.896969805212</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.6642056786185</v>
+        <v>488.3221792705606</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.5123937682563</v>
+        <v>441.7173958454606</v>
       </c>
       <c r="AD3" t="n">
-        <v>322796.3491512616</v>
+        <v>356896.969805212</v>
       </c>
       <c r="AE3" t="n">
-        <v>441664.2056786185</v>
+        <v>488322.1792705606</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.650538355233342e-06</v>
+        <v>5.195018545991737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.110026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>399512.3937682563</v>
+        <v>441717.3958454606</v>
       </c>
     </row>
     <row r="4">
@@ -19345,28 +19345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.0164197462967</v>
+        <v>311.2022917462676</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.0260865988012</v>
+        <v>425.8007048433925</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.8523688602645</v>
+        <v>385.162883188181</v>
       </c>
       <c r="AD4" t="n">
-        <v>277016.4197462967</v>
+        <v>311202.2917462676</v>
       </c>
       <c r="AE4" t="n">
-        <v>379026.0865988012</v>
+        <v>425800.7048433925</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887081612991542e-06</v>
+        <v>5.658640062185555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.6103515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>342852.3688602645</v>
+        <v>385162.883188181</v>
       </c>
     </row>
     <row r="5">
@@ -19451,28 +19451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.1191475174451</v>
+        <v>296.1344273168238</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.6429815140201</v>
+        <v>405.1841879837644</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.4145987169072</v>
+        <v>366.5139777621727</v>
       </c>
       <c r="AD5" t="n">
-        <v>262119.1475174451</v>
+        <v>296134.4273168238</v>
       </c>
       <c r="AE5" t="n">
-        <v>358642.9815140201</v>
+        <v>405184.1879837644</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.003114191260815e-06</v>
+        <v>5.886062312030735e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.393880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>324414.5987169072</v>
+        <v>366513.9777621727</v>
       </c>
     </row>
     <row r="6">
@@ -19557,28 +19557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>252.1009117309098</v>
+        <v>274.891582572778</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.9355893373498</v>
+        <v>376.1187906367929</v>
       </c>
       <c r="AC6" t="n">
-        <v>312.0154208112362</v>
+        <v>340.2225411444547</v>
       </c>
       <c r="AD6" t="n">
-        <v>252100.9117309098</v>
+        <v>274891.582572778</v>
       </c>
       <c r="AE6" t="n">
-        <v>344935.5893373498</v>
+        <v>376118.7906367929</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.081530719284989e-06</v>
+        <v>6.03975762324686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.255533854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>312015.4208112362</v>
+        <v>340222.5411444547</v>
       </c>
     </row>
     <row r="7">
@@ -19663,28 +19663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>245.2124081087022</v>
+        <v>268.0030789505703</v>
       </c>
       <c r="AB7" t="n">
-        <v>335.5104347821184</v>
+        <v>366.6936360815567</v>
       </c>
       <c r="AC7" t="n">
-        <v>303.4897897784656</v>
+        <v>331.6969101116827</v>
       </c>
       <c r="AD7" t="n">
-        <v>245212.4081087022</v>
+        <v>268003.0789505703</v>
       </c>
       <c r="AE7" t="n">
-        <v>335510.4347821184</v>
+        <v>366693.6360815567</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.133576206793419e-06</v>
+        <v>6.141766059498171e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>303489.7897784656</v>
+        <v>331696.9101116827</v>
       </c>
     </row>
     <row r="8">
@@ -19769,28 +19769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>239.3957319114416</v>
+        <v>262.1864027533097</v>
       </c>
       <c r="AB8" t="n">
-        <v>327.5518017953874</v>
+        <v>358.7350030948216</v>
       </c>
       <c r="AC8" t="n">
-        <v>296.2907175539742</v>
+        <v>324.4978378871901</v>
       </c>
       <c r="AD8" t="n">
-        <v>239395.7319114416</v>
+        <v>262186.4027533096</v>
       </c>
       <c r="AE8" t="n">
-        <v>327551.8017953874</v>
+        <v>358735.0030948216</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.173182524247253e-06</v>
+        <v>6.219393894350985e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>296290.7175539742</v>
+        <v>324497.8378871901</v>
       </c>
     </row>
     <row r="9">
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>234.7613000473356</v>
+        <v>257.5519708892003</v>
       </c>
       <c r="AB9" t="n">
-        <v>321.2107676622168</v>
+        <v>352.3939689614767</v>
       </c>
       <c r="AC9" t="n">
-        <v>290.554862818774</v>
+        <v>318.7619831519403</v>
       </c>
       <c r="AD9" t="n">
-        <v>234761.3000473356</v>
+        <v>257551.9708892003</v>
       </c>
       <c r="AE9" t="n">
-        <v>321210.7676622168</v>
+        <v>352393.9689614767</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.201046265169548e-06</v>
+        <v>6.274006441483619e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.060221354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>290554.862818774</v>
+        <v>318761.9831519403</v>
       </c>
     </row>
     <row r="10">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>231.6322509011441</v>
+        <v>254.4229217430089</v>
       </c>
       <c r="AB10" t="n">
-        <v>316.9294645764941</v>
+        <v>348.1126658757539</v>
       </c>
       <c r="AC10" t="n">
-        <v>286.6821612907047</v>
+        <v>314.889281623871</v>
       </c>
       <c r="AD10" t="n">
-        <v>231632.2509011441</v>
+        <v>254422.9217430089</v>
       </c>
       <c r="AE10" t="n">
-        <v>316929.4645764941</v>
+        <v>348112.6658757539</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.218162563164673e-06</v>
+        <v>6.307554149007951e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>286682.1612907047</v>
+        <v>314889.281623871</v>
       </c>
     </row>
     <row r="11">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>227.4695669905996</v>
+        <v>250.2602378324642</v>
       </c>
       <c r="AB11" t="n">
-        <v>311.2338968054367</v>
+        <v>342.4170981046965</v>
       </c>
       <c r="AC11" t="n">
-        <v>281.5301705139356</v>
+        <v>309.737290847102</v>
       </c>
       <c r="AD11" t="n">
-        <v>227469.5669905996</v>
+        <v>250260.2378324642</v>
       </c>
       <c r="AE11" t="n">
-        <v>311233.8968054367</v>
+        <v>342417.0981046965</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.238463288693774e-06</v>
+        <v>6.347343290490299e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.001627604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>281530.1705139356</v>
+        <v>309737.2908471019</v>
       </c>
     </row>
     <row r="12">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>212.5466101305151</v>
+        <v>246.6471412759141</v>
       </c>
       <c r="AB12" t="n">
-        <v>290.8156488750872</v>
+        <v>337.4734999974568</v>
       </c>
       <c r="AC12" t="n">
-        <v>263.0606115088612</v>
+        <v>305.2655028048321</v>
       </c>
       <c r="AD12" t="n">
-        <v>212546.6101305151</v>
+        <v>246647.1412759141</v>
       </c>
       <c r="AE12" t="n">
-        <v>290815.6488750872</v>
+        <v>337473.4999974568</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.252693699236231e-06</v>
+        <v>6.375234698490179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.978841145833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>263060.6115088612</v>
+        <v>305265.5028048321</v>
       </c>
     </row>
     <row r="13">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>208.5990567967601</v>
+        <v>242.699587942159</v>
       </c>
       <c r="AB13" t="n">
-        <v>285.4144322500842</v>
+        <v>332.0722833724537</v>
       </c>
       <c r="AC13" t="n">
-        <v>258.1748794178916</v>
+        <v>300.3797707138625</v>
       </c>
       <c r="AD13" t="n">
-        <v>208599.0567967601</v>
+        <v>242699.5879421589</v>
       </c>
       <c r="AE13" t="n">
-        <v>285414.4322500842</v>
+        <v>332072.2833724538</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.268018756743494e-06</v>
+        <v>6.405271599413127e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.9560546875</v>
       </c>
       <c r="AH13" t="n">
-        <v>258174.8794178916</v>
+        <v>300379.7707138624</v>
       </c>
     </row>
     <row r="14">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>206.903622157324</v>
+        <v>241.0041533027229</v>
       </c>
       <c r="AB14" t="n">
-        <v>283.0946637791115</v>
+        <v>329.7525149014812</v>
       </c>
       <c r="AC14" t="n">
-        <v>256.0765063939724</v>
+        <v>298.2813976899432</v>
       </c>
       <c r="AD14" t="n">
-        <v>206903.622157324</v>
+        <v>241004.1533027229</v>
       </c>
       <c r="AE14" t="n">
-        <v>283094.6637791115</v>
+        <v>329752.5149014812</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.271700751079655e-06</v>
+        <v>6.412488257427083e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.951171875</v>
       </c>
       <c r="AH14" t="n">
-        <v>256076.5063939724</v>
+        <v>298281.3976899432</v>
       </c>
     </row>
     <row r="15">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>205.1403238993225</v>
+        <v>239.2408550447214</v>
       </c>
       <c r="AB15" t="n">
-        <v>280.6820413112862</v>
+        <v>327.3398924336558</v>
       </c>
       <c r="AC15" t="n">
-        <v>253.8941412283387</v>
+        <v>296.0990325243095</v>
       </c>
       <c r="AD15" t="n">
-        <v>205140.3238993225</v>
+        <v>239240.8550447214</v>
       </c>
       <c r="AE15" t="n">
-        <v>280682.0413112862</v>
+        <v>327339.8924336559</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.27986084663547e-06</v>
+        <v>6.428481931944496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.938151041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>253894.1412283387</v>
+        <v>296099.0325243095</v>
       </c>
     </row>
     <row r="16">
@@ -20617,28 +20617,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>206.1423631463114</v>
+        <v>240.2428942917103</v>
       </c>
       <c r="AB16" t="n">
-        <v>282.0530756158673</v>
+        <v>328.7109267382369</v>
       </c>
       <c r="AC16" t="n">
-        <v>255.1343259431497</v>
+        <v>297.3392172391205</v>
       </c>
       <c r="AD16" t="n">
-        <v>206142.3631463114</v>
+        <v>240242.8942917103</v>
       </c>
       <c r="AE16" t="n">
-        <v>282053.0756158673</v>
+        <v>328710.9267382369</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.280159386716779e-06</v>
+        <v>6.429067066378059e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.938151041666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>255134.3259431497</v>
+        <v>297339.2172391205</v>
       </c>
     </row>
   </sheetData>
@@ -20914,28 +20914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>596.8922553047828</v>
+        <v>655.0363007802339</v>
       </c>
       <c r="AB2" t="n">
-        <v>816.6943167358168</v>
+        <v>896.2495648895772</v>
       </c>
       <c r="AC2" t="n">
-        <v>738.7501573842221</v>
+        <v>810.7127643106801</v>
       </c>
       <c r="AD2" t="n">
-        <v>596892.2553047828</v>
+        <v>655036.3007802339</v>
       </c>
       <c r="AE2" t="n">
-        <v>816694.3167358168</v>
+        <v>896249.5648895772</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.792695071717326e-06</v>
+        <v>3.446820338110818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.8525390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>738750.1573842221</v>
+        <v>810712.7643106801</v>
       </c>
     </row>
     <row r="3">
@@ -21020,28 +21020,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.1846572897042</v>
+        <v>394.0370377416974</v>
       </c>
       <c r="AB3" t="n">
-        <v>491.4522942124916</v>
+        <v>539.1388587254173</v>
       </c>
       <c r="AC3" t="n">
-        <v>444.5487770104776</v>
+        <v>487.6842027348033</v>
       </c>
       <c r="AD3" t="n">
-        <v>359184.6572897042</v>
+        <v>394037.0377416973</v>
       </c>
       <c r="AE3" t="n">
-        <v>491452.2942124915</v>
+        <v>539138.8587254173</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.495791131880147e-06</v>
+        <v>4.79866529939207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.359049479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>444548.7770104776</v>
+        <v>487684.2027348033</v>
       </c>
     </row>
     <row r="4">
@@ -21126,28 +21126,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.0984407164243</v>
+        <v>339.036072514438</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.0809024645721</v>
+        <v>463.8841116301472</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.3707251065669</v>
+        <v>419.6116630816049</v>
       </c>
       <c r="AD4" t="n">
-        <v>304098.4407164243</v>
+        <v>339036.072514438</v>
       </c>
       <c r="AE4" t="n">
-        <v>416080.9024645721</v>
+        <v>463884.1116301472</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754564803170139e-06</v>
+        <v>5.296210234524569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>376370.7251065669</v>
+        <v>419611.6630816049</v>
       </c>
     </row>
     <row r="5">
@@ -21232,28 +21232,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>284.6805302542576</v>
+        <v>319.4475698516791</v>
       </c>
       <c r="AB5" t="n">
-        <v>389.5124607124858</v>
+        <v>437.0822581032139</v>
       </c>
       <c r="AC5" t="n">
-        <v>352.3379381462576</v>
+        <v>395.3677408386446</v>
       </c>
       <c r="AD5" t="n">
-        <v>284680.5302542576</v>
+        <v>319447.5698516791</v>
       </c>
       <c r="AE5" t="n">
-        <v>389512.4607124858</v>
+        <v>437082.2581032139</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.88989933811758e-06</v>
+        <v>5.556418361865906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.491536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>352337.9381462576</v>
+        <v>395367.7408386446</v>
       </c>
     </row>
     <row r="6">
@@ -21338,28 +21338,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>274.2193099859816</v>
+        <v>308.9863495834031</v>
       </c>
       <c r="AB6" t="n">
-        <v>375.1989576249647</v>
+        <v>422.7687550156926</v>
       </c>
       <c r="AC6" t="n">
-        <v>339.3904957042816</v>
+        <v>382.4202983966685</v>
       </c>
       <c r="AD6" t="n">
-        <v>274219.3099859816</v>
+        <v>308986.3495834031</v>
       </c>
       <c r="AE6" t="n">
-        <v>375198.9576249647</v>
+        <v>422768.7550156927</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.966536906178595e-06</v>
+        <v>5.703769650115395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.349934895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>339390.4957042816</v>
+        <v>382420.2983966685</v>
       </c>
     </row>
     <row r="7">
@@ -21444,28 +21444,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>266.3447102941863</v>
+        <v>289.6365543347464</v>
       </c>
       <c r="AB7" t="n">
-        <v>364.4245829238303</v>
+        <v>396.293511503762</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.6444122026937</v>
+        <v>358.4718149672789</v>
       </c>
       <c r="AD7" t="n">
-        <v>266344.7102941863</v>
+        <v>289636.5543347464</v>
       </c>
       <c r="AE7" t="n">
-        <v>364424.5829238303</v>
+        <v>396293.511503762</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.023576317521717e-06</v>
+        <v>5.813439502056808e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.2490234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>329644.4122026937</v>
+        <v>358471.8149672789</v>
       </c>
     </row>
     <row r="8">
@@ -21550,28 +21550,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>260.4744751888713</v>
+        <v>283.7663192294315</v>
       </c>
       <c r="AB8" t="n">
-        <v>356.3926682762432</v>
+        <v>388.2615968561749</v>
       </c>
       <c r="AC8" t="n">
-        <v>322.3790522162092</v>
+        <v>351.2064549807944</v>
       </c>
       <c r="AD8" t="n">
-        <v>260474.4751888713</v>
+        <v>283766.3192294315</v>
       </c>
       <c r="AE8" t="n">
-        <v>356392.6682762431</v>
+        <v>388261.5968561749</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.06238261788849e-06</v>
+        <v>5.888052495343444e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>322379.0522162092</v>
+        <v>351206.4549807945</v>
       </c>
     </row>
     <row r="9">
@@ -21656,28 +21656,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>255.6930970527162</v>
+        <v>278.9849410932796</v>
       </c>
       <c r="AB9" t="n">
-        <v>349.8505757706744</v>
+        <v>381.7195043507759</v>
       </c>
       <c r="AC9" t="n">
-        <v>316.4613278375927</v>
+        <v>345.2887306022262</v>
       </c>
       <c r="AD9" t="n">
-        <v>255693.0970527162</v>
+        <v>278984.9410932796</v>
       </c>
       <c r="AE9" t="n">
-        <v>349850.5757706744</v>
+        <v>381719.5043507759</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.095338722220071e-06</v>
+        <v>5.951417298687372e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.126953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>316461.3278375927</v>
+        <v>345288.7306022262</v>
       </c>
     </row>
     <row r="10">
@@ -21762,28 +21762,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>252.0005762555182</v>
+        <v>275.2924202960816</v>
       </c>
       <c r="AB10" t="n">
-        <v>344.7983059134302</v>
+        <v>376.6672344935291</v>
       </c>
       <c r="AC10" t="n">
-        <v>311.891239524617</v>
+        <v>340.7186422892498</v>
       </c>
       <c r="AD10" t="n">
-        <v>252000.5762555182</v>
+        <v>275292.4202960816</v>
       </c>
       <c r="AE10" t="n">
-        <v>344798.3059134302</v>
+        <v>376667.2344935291</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.115229388739724e-06</v>
+        <v>5.989661144492584e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>311891.239524617</v>
+        <v>340718.6422892498</v>
       </c>
     </row>
     <row r="11">
@@ -21868,28 +21868,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>248.684514997372</v>
+        <v>271.9763590379354</v>
       </c>
       <c r="AB11" t="n">
-        <v>340.2611246057392</v>
+        <v>372.1300531858357</v>
       </c>
       <c r="AC11" t="n">
-        <v>307.7870804329566</v>
+        <v>336.6144831975887</v>
       </c>
       <c r="AD11" t="n">
-        <v>248684.5149973721</v>
+        <v>271976.3590379354</v>
       </c>
       <c r="AE11" t="n">
-        <v>340261.1246057392</v>
+        <v>372130.0531858357</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.134827545457617e-06</v>
+        <v>6.027342580800659e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.061848958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>307787.0804329566</v>
+        <v>336614.4831975887</v>
       </c>
     </row>
     <row r="12">
@@ -21974,28 +21974,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>245.7207226403838</v>
+        <v>269.0125666809471</v>
       </c>
       <c r="AB12" t="n">
-        <v>336.2059331496192</v>
+        <v>368.0748617297136</v>
       </c>
       <c r="AC12" t="n">
-        <v>304.1189107579104</v>
+        <v>332.946313522542</v>
       </c>
       <c r="AD12" t="n">
-        <v>245720.7226403838</v>
+        <v>269012.5666809471</v>
       </c>
       <c r="AE12" t="n">
-        <v>336205.9331496192</v>
+        <v>368074.8617297136</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.149063022476584e-06</v>
+        <v>6.054713176327918e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>304118.9107579105</v>
+        <v>332946.313522542</v>
       </c>
     </row>
     <row r="13">
@@ -22080,28 +22080,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>241.9219399750248</v>
+        <v>265.213784015588</v>
       </c>
       <c r="AB13" t="n">
-        <v>331.0082711164144</v>
+        <v>362.8771996965062</v>
       </c>
       <c r="AC13" t="n">
-        <v>299.4173062941886</v>
+        <v>328.2447090588194</v>
       </c>
       <c r="AD13" t="n">
-        <v>241921.9399750248</v>
+        <v>265213.7840155881</v>
       </c>
       <c r="AE13" t="n">
-        <v>331008.2711164144</v>
+        <v>362877.1996965062</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.164566041969843e-06</v>
+        <v>6.084520879676097e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.0146484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>299417.3062941886</v>
+        <v>328244.7090588194</v>
       </c>
     </row>
     <row r="14">
@@ -22186,28 +22186,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>227.7046728522951</v>
+        <v>262.55696379574</v>
       </c>
       <c r="AB14" t="n">
-        <v>311.555579017547</v>
+        <v>359.2420210610744</v>
       </c>
       <c r="AC14" t="n">
-        <v>281.821151827206</v>
+        <v>324.9564667703479</v>
       </c>
       <c r="AD14" t="n">
-        <v>227704.6728522952</v>
+        <v>262556.96379574</v>
       </c>
       <c r="AE14" t="n">
-        <v>311555.579017547</v>
+        <v>359242.0210610743</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.177923989583532e-06</v>
+        <v>6.11020424671195e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>281821.151827206</v>
+        <v>324956.4667703479</v>
       </c>
     </row>
     <row r="15">
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>224.8949939847137</v>
+        <v>259.7472849281585</v>
       </c>
       <c r="AB15" t="n">
-        <v>307.7112524366406</v>
+        <v>355.397694480166</v>
       </c>
       <c r="AC15" t="n">
-        <v>278.3437223796338</v>
+        <v>321.4790373227751</v>
       </c>
       <c r="AD15" t="n">
-        <v>224894.9939847137</v>
+        <v>259747.2849281585</v>
       </c>
       <c r="AE15" t="n">
-        <v>307711.2524366406</v>
+        <v>355397.694480166</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.184944224825762e-06</v>
+        <v>6.1237020746432e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.982096354166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>278343.7223796339</v>
+        <v>321479.0373227751</v>
       </c>
     </row>
     <row r="16">
@@ -22398,28 +22398,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>221.451079050162</v>
+        <v>256.3033699936037</v>
       </c>
       <c r="AB16" t="n">
-        <v>302.9991360883855</v>
+        <v>350.6855781317383</v>
       </c>
       <c r="AC16" t="n">
-        <v>274.0813238021579</v>
+        <v>317.2166387452501</v>
       </c>
       <c r="AD16" t="n">
-        <v>221451.0790501621</v>
+        <v>256303.3699936037</v>
       </c>
       <c r="AE16" t="n">
-        <v>302999.1360883855</v>
+        <v>350685.5781317383</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.199667218180994e-06</v>
+        <v>6.152010019332351e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.959309895833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>274081.3238021579</v>
+        <v>317216.6387452501</v>
       </c>
     </row>
     <row r="17">
@@ -22504,28 +22504,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>218.6520910392876</v>
+        <v>253.5043819827293</v>
       </c>
       <c r="AB17" t="n">
-        <v>299.169437209273</v>
+        <v>346.8558792526258</v>
       </c>
       <c r="AC17" t="n">
-        <v>270.6171260090507</v>
+        <v>313.7524409521427</v>
       </c>
       <c r="AD17" t="n">
-        <v>218652.0910392876</v>
+        <v>253504.3819827293</v>
       </c>
       <c r="AE17" t="n">
-        <v>299169.437209273</v>
+        <v>346855.8792526258</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.206882459957732e-06</v>
+        <v>6.16588278692836e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>270617.1260090506</v>
+        <v>313752.4409521427</v>
       </c>
     </row>
     <row r="18">
@@ -22610,28 +22610,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>219.4734496752117</v>
+        <v>254.3257406186534</v>
       </c>
       <c r="AB18" t="n">
-        <v>300.2932563307293</v>
+        <v>347.9796983740821</v>
       </c>
       <c r="AC18" t="n">
-        <v>271.6336894108456</v>
+        <v>314.7690043539377</v>
       </c>
       <c r="AD18" t="n">
-        <v>219473.4496752117</v>
+        <v>254325.7406186534</v>
       </c>
       <c r="AE18" t="n">
-        <v>300293.2563307293</v>
+        <v>347979.6983740822</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.204542381543654e-06</v>
+        <v>6.161383510951275e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.952799479166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>271633.6894108456</v>
+        <v>314769.0043539377</v>
       </c>
     </row>
     <row r="19">
@@ -22716,28 +22716,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>218.9732635320829</v>
+        <v>253.8255544755245</v>
       </c>
       <c r="AB19" t="n">
-        <v>299.6088795830456</v>
+        <v>347.2953216263984</v>
       </c>
       <c r="AC19" t="n">
-        <v>271.0146286194317</v>
+        <v>314.1499435625238</v>
       </c>
       <c r="AD19" t="n">
-        <v>218973.2635320829</v>
+        <v>253825.5544755245</v>
       </c>
       <c r="AE19" t="n">
-        <v>299608.8795830456</v>
+        <v>347295.3216263984</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.204444878276402e-06</v>
+        <v>6.161196041118898e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.952799479166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>271014.6286194318</v>
+        <v>314149.9435625238</v>
       </c>
     </row>
     <row r="20">
@@ -22822,28 +22822,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>219.2954509695743</v>
+        <v>254.1477419130158</v>
       </c>
       <c r="AB20" t="n">
-        <v>300.0497106489276</v>
+        <v>347.7361526922805</v>
       </c>
       <c r="AC20" t="n">
-        <v>271.4133873870964</v>
+        <v>314.5487023301886</v>
       </c>
       <c r="AD20" t="n">
-        <v>219295.4509695743</v>
+        <v>254147.7419130158</v>
       </c>
       <c r="AE20" t="n">
-        <v>300049.7106489276</v>
+        <v>347736.1526922805</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.204542381543654e-06</v>
+        <v>6.161383510951275e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.952799479166667</v>
       </c>
       <c r="AH20" t="n">
-        <v>271413.3873870964</v>
+        <v>314548.7023301886</v>
       </c>
     </row>
     <row r="21">
@@ -22928,28 +22928,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>220.023705287922</v>
+        <v>254.8759962313636</v>
       </c>
       <c r="AB21" t="n">
-        <v>301.0461403356035</v>
+        <v>348.7325823789563</v>
       </c>
       <c r="AC21" t="n">
-        <v>272.3147192229741</v>
+        <v>315.4500341660662</v>
       </c>
       <c r="AD21" t="n">
-        <v>220023.705287922</v>
+        <v>254875.9962313636</v>
       </c>
       <c r="AE21" t="n">
-        <v>301046.1403356035</v>
+        <v>348732.5823789563</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.204152368474642e-06</v>
+        <v>6.160633631621762e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.952799479166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>272314.7192229741</v>
+        <v>315450.0341660663</v>
       </c>
     </row>
   </sheetData>
@@ -23225,28 +23225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>849.8674865227588</v>
+        <v>910.2465123735858</v>
       </c>
       <c r="AB2" t="n">
-        <v>1162.826188567785</v>
+        <v>1245.439435471511</v>
       </c>
       <c r="AC2" t="n">
-        <v>1051.847689167681</v>
+        <v>1126.576443735335</v>
       </c>
       <c r="AD2" t="n">
-        <v>849867.4865227587</v>
+        <v>910246.5123735858</v>
       </c>
       <c r="AE2" t="n">
-        <v>1162826.188567786</v>
+        <v>1245439.435471511</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.468906417633204e-06</v>
+        <v>2.736461244751345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.42805989583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1051847.689167681</v>
+        <v>1126576.443735335</v>
       </c>
     </row>
     <row r="3">
@@ -23331,28 +23331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.5276512821954</v>
+        <v>482.813732185102</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.5399024913241</v>
+        <v>660.6070486142261</v>
       </c>
       <c r="AC3" t="n">
-        <v>537.7978486395455</v>
+        <v>597.5596390622995</v>
       </c>
       <c r="AD3" t="n">
-        <v>434527.6512821955</v>
+        <v>482813.732185102</v>
       </c>
       <c r="AE3" t="n">
-        <v>594539.9024913241</v>
+        <v>660607.048614226</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.236204855803599e-06</v>
+        <v>4.165880038219933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8505859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>537797.8486395455</v>
+        <v>597559.6390622995</v>
       </c>
     </row>
     <row r="4">
@@ -23437,28 +23437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.0058718651165</v>
+        <v>407.1991868372046</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.6266015097512</v>
+        <v>557.1478917909267</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.1794311200697</v>
+        <v>503.9744789603772</v>
       </c>
       <c r="AD4" t="n">
-        <v>371005.8718651165</v>
+        <v>407199.1868372046</v>
       </c>
       <c r="AE4" t="n">
-        <v>507626.6015097512</v>
+        <v>557147.8917909267</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.523435915940486e-06</v>
+        <v>4.700969717806113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.070963541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>459179.4311200697</v>
+        <v>503974.4789603772</v>
       </c>
     </row>
     <row r="5">
@@ -23543,28 +23543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.2381381236724</v>
+        <v>368.516704441781</v>
       </c>
       <c r="AB5" t="n">
-        <v>454.5828778930024</v>
+        <v>504.2208128268271</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.1981260379697</v>
+        <v>456.0986861289894</v>
       </c>
       <c r="AD5" t="n">
-        <v>332238.1381236724</v>
+        <v>368516.704441781</v>
       </c>
       <c r="AE5" t="n">
-        <v>454582.8778930024</v>
+        <v>504220.8128268271</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.674768663220995e-06</v>
+        <v>4.982891147941951e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.725911458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>411198.1260379697</v>
+        <v>456098.6861289894</v>
       </c>
     </row>
     <row r="6">
@@ -23649,28 +23649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>317.3053494407069</v>
+        <v>353.5839157588156</v>
       </c>
       <c r="AB6" t="n">
-        <v>434.1511776288273</v>
+        <v>483.7891125626521</v>
       </c>
       <c r="AC6" t="n">
-        <v>392.7163985709361</v>
+        <v>437.6169586619558</v>
       </c>
       <c r="AD6" t="n">
-        <v>317305.349440707</v>
+        <v>353583.9157588156</v>
       </c>
       <c r="AE6" t="n">
-        <v>434151.1776288273</v>
+        <v>483789.112562652</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.768128169005987e-06</v>
+        <v>5.156812826234707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>392716.3985709361</v>
+        <v>437616.9586619558</v>
       </c>
     </row>
     <row r="7">
@@ -23755,28 +23755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.3345751768359</v>
+        <v>343.4425492943524</v>
       </c>
       <c r="AB7" t="n">
-        <v>420.5087244014837</v>
+        <v>469.9132475604614</v>
       </c>
       <c r="AC7" t="n">
-        <v>380.3759619323068</v>
+        <v>425.0653867406754</v>
       </c>
       <c r="AD7" t="n">
-        <v>307334.5751768359</v>
+        <v>343442.5492943524</v>
       </c>
       <c r="AE7" t="n">
-        <v>420508.7244014837</v>
+        <v>469913.2475604614</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.832971616068344e-06</v>
+        <v>5.277611249968285e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.406901041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>380375.9619323068</v>
+        <v>425065.3867406754</v>
       </c>
     </row>
     <row r="8">
@@ -23861,28 +23861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>300.4199507393894</v>
+        <v>336.5279248569059</v>
       </c>
       <c r="AB8" t="n">
-        <v>411.0478301944686</v>
+        <v>460.4523533534464</v>
       </c>
       <c r="AC8" t="n">
-        <v>371.8180021899609</v>
+        <v>416.5074269983295</v>
       </c>
       <c r="AD8" t="n">
-        <v>300419.9507393895</v>
+        <v>336527.9248569059</v>
       </c>
       <c r="AE8" t="n">
-        <v>411047.8301944687</v>
+        <v>460452.3533534464</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.877392671240235e-06</v>
+        <v>5.360364306575322e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.323893229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>371818.0021899609</v>
+        <v>416507.4269983295</v>
       </c>
     </row>
     <row r="9">
@@ -23967,28 +23967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>294.2676403205912</v>
+        <v>318.4534407078813</v>
       </c>
       <c r="AB9" t="n">
-        <v>402.6299676586892</v>
+        <v>435.7220467507874</v>
       </c>
       <c r="AC9" t="n">
-        <v>364.2035286400518</v>
+        <v>394.1373461486249</v>
       </c>
       <c r="AD9" t="n">
-        <v>294267.6403205912</v>
+        <v>318453.4407078814</v>
       </c>
       <c r="AE9" t="n">
-        <v>402629.9676586892</v>
+        <v>435722.0467507874</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.917578668185992e-06</v>
+        <v>5.435227770921095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.250651041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>364203.5286400518</v>
+        <v>394137.3461486249</v>
       </c>
     </row>
     <row r="10">
@@ -24073,28 +24073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>289.7961436148284</v>
+        <v>313.9819440021186</v>
       </c>
       <c r="AB10" t="n">
-        <v>396.5118685973524</v>
+        <v>429.6039476894505</v>
       </c>
       <c r="AC10" t="n">
-        <v>358.6693323663231</v>
+        <v>388.603149874896</v>
       </c>
       <c r="AD10" t="n">
-        <v>289796.1436148284</v>
+        <v>313981.9440021185</v>
       </c>
       <c r="AE10" t="n">
-        <v>396511.8685973524</v>
+        <v>429603.9476894505</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.9456241648835e-06</v>
+        <v>5.487474404117911e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.2001953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>358669.3323663231</v>
+        <v>388603.149874896</v>
       </c>
     </row>
     <row r="11">
@@ -24179,28 +24179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>286.3784173611687</v>
+        <v>310.5642177484587</v>
       </c>
       <c r="AB11" t="n">
-        <v>391.8355847576541</v>
+        <v>424.9276638497524</v>
       </c>
       <c r="AC11" t="n">
-        <v>354.4393464930802</v>
+        <v>384.3731640016532</v>
       </c>
       <c r="AD11" t="n">
-        <v>286378.4173611687</v>
+        <v>310564.2177484587</v>
       </c>
       <c r="AE11" t="n">
-        <v>391835.5847576542</v>
+        <v>424927.6638497524</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.966423006394067e-06</v>
+        <v>5.52622106833434e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.164388020833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>354439.3464930801</v>
+        <v>384373.1640016532</v>
       </c>
     </row>
     <row r="12">
@@ -24285,28 +24285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>283.8154264462488</v>
+        <v>308.001226833539</v>
       </c>
       <c r="AB12" t="n">
-        <v>388.3287875166819</v>
+        <v>421.4208666087802</v>
       </c>
       <c r="AC12" t="n">
-        <v>351.2672330589654</v>
+        <v>381.2010505675385</v>
       </c>
       <c r="AD12" t="n">
-        <v>283815.4264462488</v>
+        <v>308001.226833539</v>
       </c>
       <c r="AE12" t="n">
-        <v>388328.7875166819</v>
+        <v>421420.8666087802</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.979692855502619e-06</v>
+        <v>5.550941790752969e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.139973958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>351267.2330589654</v>
+        <v>381201.0505675385</v>
       </c>
     </row>
     <row r="13">
@@ -24391,28 +24391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>280.0044975319572</v>
+        <v>304.1902979192473</v>
       </c>
       <c r="AB13" t="n">
-        <v>383.1145064498302</v>
+        <v>416.2065855419284</v>
       </c>
       <c r="AC13" t="n">
-        <v>346.5505956588445</v>
+        <v>376.4844131674176</v>
       </c>
       <c r="AD13" t="n">
-        <v>280004.4975319572</v>
+        <v>304190.2979192473</v>
       </c>
       <c r="AE13" t="n">
-        <v>383114.5064498302</v>
+        <v>416206.5855419284</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.001903383088565e-06</v>
+        <v>5.592318319056488e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.1025390625</v>
       </c>
       <c r="AH13" t="n">
-        <v>346550.5956588446</v>
+        <v>376484.4131674176</v>
       </c>
     </row>
     <row r="14">
@@ -24497,28 +24497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>278.5324559954703</v>
+        <v>302.7182563827604</v>
       </c>
       <c r="AB14" t="n">
-        <v>381.1003942777195</v>
+        <v>414.1924733698178</v>
       </c>
       <c r="AC14" t="n">
-        <v>344.7287075256159</v>
+        <v>374.662525034189</v>
       </c>
       <c r="AD14" t="n">
-        <v>278532.4559954703</v>
+        <v>302718.2563827604</v>
       </c>
       <c r="AE14" t="n">
-        <v>381100.3942777195</v>
+        <v>414192.4733698178</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.006514890934799e-06</v>
+        <v>5.600909208407642e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>344728.7075256159</v>
+        <v>374662.525034189</v>
       </c>
     </row>
     <row r="15">
@@ -24603,28 +24603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>275.6107223502343</v>
+        <v>299.7965227375244</v>
       </c>
       <c r="AB15" t="n">
-        <v>377.1027494065163</v>
+        <v>410.1948284986145</v>
       </c>
       <c r="AC15" t="n">
-        <v>341.1125922701906</v>
+        <v>371.0464097787636</v>
       </c>
       <c r="AD15" t="n">
-        <v>275610.7223502343</v>
+        <v>299796.5227375244</v>
       </c>
       <c r="AE15" t="n">
-        <v>377102.7494065163</v>
+        <v>410194.8284986145</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.022702224599132e-06</v>
+        <v>5.631064983272917e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.068359375</v>
       </c>
       <c r="AH15" t="n">
-        <v>341112.5922701906</v>
+        <v>371046.4097787637</v>
       </c>
     </row>
     <row r="16">
@@ -24709,28 +24709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>273.430468723696</v>
+        <v>297.6162691109861</v>
       </c>
       <c r="AB16" t="n">
-        <v>374.1196302086852</v>
+        <v>407.2117093007834</v>
       </c>
       <c r="AC16" t="n">
-        <v>338.4141777817663</v>
+        <v>368.3479952903393</v>
       </c>
       <c r="AD16" t="n">
-        <v>273430.468723696</v>
+        <v>297616.2691109861</v>
       </c>
       <c r="AE16" t="n">
-        <v>374119.6302086852</v>
+        <v>407211.7093007834</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.029854767381047e-06</v>
+        <v>5.644389627980831e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.055338541666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>338414.1777817663</v>
+        <v>368347.9952903393</v>
       </c>
     </row>
     <row r="17">
@@ -24815,28 +24815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>269.9372471276819</v>
+        <v>294.123047514972</v>
       </c>
       <c r="AB17" t="n">
-        <v>369.3400503109584</v>
+        <v>402.4321294030566</v>
       </c>
       <c r="AC17" t="n">
-        <v>334.090754281296</v>
+        <v>364.0245717898691</v>
       </c>
       <c r="AD17" t="n">
-        <v>269937.2471276819</v>
+        <v>294123.047514972</v>
       </c>
       <c r="AE17" t="n">
-        <v>369340.0503109584</v>
+        <v>402432.1294030566</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.045477426615229e-06</v>
+        <v>5.673493457211271e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.029296875</v>
       </c>
       <c r="AH17" t="n">
-        <v>334090.754281296</v>
+        <v>364024.5717898691</v>
       </c>
     </row>
     <row r="18">
@@ -24921,28 +24921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>269.5210114260835</v>
+        <v>293.7068118133736</v>
       </c>
       <c r="AB18" t="n">
-        <v>368.7705382610083</v>
+        <v>401.8626173531065</v>
       </c>
       <c r="AC18" t="n">
-        <v>333.5755956620781</v>
+        <v>363.509413170651</v>
       </c>
       <c r="AD18" t="n">
-        <v>269521.0114260835</v>
+        <v>293706.8118133736</v>
       </c>
       <c r="AE18" t="n">
-        <v>368770.5382610083</v>
+        <v>401862.6173531066</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.042936391679549e-06</v>
+        <v>5.668759701854513e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.0341796875</v>
       </c>
       <c r="AH18" t="n">
-        <v>333575.5956620781</v>
+        <v>363509.4131706511</v>
       </c>
     </row>
     <row r="19">
@@ -25027,28 +25027,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>267.11474393822</v>
+        <v>291.3005443255102</v>
       </c>
       <c r="AB19" t="n">
-        <v>365.4781769270842</v>
+        <v>398.5702560191824</v>
       </c>
       <c r="AC19" t="n">
-        <v>330.5974526730055</v>
+        <v>360.5312701815785</v>
       </c>
       <c r="AD19" t="n">
-        <v>267114.74393822</v>
+        <v>291300.5443255102</v>
       </c>
       <c r="AE19" t="n">
-        <v>365478.1769270842</v>
+        <v>398570.2560191824</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.052441744587093e-06</v>
+        <v>5.686467453374239e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.017903645833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>330597.4526730055</v>
+        <v>360531.2701815785</v>
       </c>
     </row>
     <row r="20">
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>265.0016961234</v>
+        <v>289.1874965106902</v>
       </c>
       <c r="AB20" t="n">
-        <v>362.587011685757</v>
+        <v>395.6790907778553</v>
       </c>
       <c r="AC20" t="n">
-        <v>327.9822161845347</v>
+        <v>357.9160336931077</v>
       </c>
       <c r="AD20" t="n">
-        <v>265001.6961234</v>
+        <v>289187.4965106901</v>
       </c>
       <c r="AE20" t="n">
-        <v>362587.011685757</v>
+        <v>395679.0907778553</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.059688399774033e-06</v>
+        <v>5.699967422354624e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>327982.2161845347</v>
+        <v>357916.0336931077</v>
       </c>
     </row>
     <row r="21">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>251.6840947844756</v>
+        <v>287.8773202480157</v>
       </c>
       <c r="AB21" t="n">
-        <v>344.3652820025729</v>
+        <v>393.8864498143669</v>
       </c>
       <c r="AC21" t="n">
-        <v>311.4995428080589</v>
+        <v>356.2944798671872</v>
       </c>
       <c r="AD21" t="n">
-        <v>251684.0947844756</v>
+        <v>287877.3202480157</v>
       </c>
       <c r="AE21" t="n">
-        <v>344365.2820025729</v>
+        <v>393886.4498143669</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.066746830150922e-06</v>
+        <v>5.713116742790064e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.9951171875</v>
       </c>
       <c r="AH21" t="n">
-        <v>311499.5428080589</v>
+        <v>356294.4798671873</v>
       </c>
     </row>
     <row r="22">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>248.593871341948</v>
+        <v>284.7870968054881</v>
       </c>
       <c r="AB22" t="n">
-        <v>340.1371019574723</v>
+        <v>389.6582697692641</v>
       </c>
       <c r="AC22" t="n">
-        <v>307.6748943321734</v>
+        <v>352.4698313913011</v>
       </c>
       <c r="AD22" t="n">
-        <v>248593.871341948</v>
+        <v>284787.0968054882</v>
       </c>
       <c r="AE22" t="n">
-        <v>340137.1019574723</v>
+        <v>389658.269769264</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.073522923312736e-06</v>
+        <v>5.725740090408087e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.983723958333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>307674.8943321734</v>
+        <v>352469.8313913011</v>
       </c>
     </row>
     <row r="23">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>248.0117773056951</v>
+        <v>284.2050027692352</v>
       </c>
       <c r="AB23" t="n">
-        <v>339.3406552168949</v>
+        <v>388.8618230286863</v>
       </c>
       <c r="AC23" t="n">
-        <v>306.9544593506964</v>
+        <v>351.7493964098241</v>
       </c>
       <c r="AD23" t="n">
-        <v>248011.7773056951</v>
+        <v>284205.0027692352</v>
       </c>
       <c r="AE23" t="n">
-        <v>339340.6552168949</v>
+        <v>388861.8230286863</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.073711148122787e-06</v>
+        <v>5.726090738953033e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.983723958333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>306954.4593506964</v>
+        <v>351749.3964098241</v>
       </c>
     </row>
     <row r="24">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>245.2079226604846</v>
+        <v>281.4011481240246</v>
       </c>
       <c r="AB24" t="n">
-        <v>335.5042975939829</v>
+        <v>385.0254654057723</v>
       </c>
       <c r="AC24" t="n">
-        <v>303.4842383149522</v>
+        <v>348.2791753740793</v>
       </c>
       <c r="AD24" t="n">
-        <v>245207.9226604846</v>
+        <v>281401.1481240246</v>
       </c>
       <c r="AE24" t="n">
-        <v>335504.2975939829</v>
+        <v>385025.4654057723</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.080863690904701e-06</v>
+        <v>5.739415383660945e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.972330729166667</v>
       </c>
       <c r="AH24" t="n">
-        <v>303484.2383149522</v>
+        <v>348279.1753740793</v>
       </c>
     </row>
     <row r="25">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>244.5195152792035</v>
+        <v>280.7127407427436</v>
       </c>
       <c r="AB25" t="n">
-        <v>334.5623882445245</v>
+        <v>384.0835560563133</v>
       </c>
       <c r="AC25" t="n">
-        <v>302.6322234718277</v>
+        <v>347.4271605309547</v>
       </c>
       <c r="AD25" t="n">
-        <v>244519.5152792035</v>
+        <v>280712.7407427435</v>
       </c>
       <c r="AE25" t="n">
-        <v>334562.3882445245</v>
+        <v>384083.5560563133</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.080487241284601e-06</v>
+        <v>5.738714086571055e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.972330729166667</v>
       </c>
       <c r="AH25" t="n">
-        <v>302632.2234718277</v>
+        <v>347427.1605309547</v>
       </c>
     </row>
     <row r="26">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>243.3750082899496</v>
+        <v>279.5682337534896</v>
       </c>
       <c r="AB26" t="n">
-        <v>332.9964232897432</v>
+        <v>382.5175911015314</v>
       </c>
       <c r="AC26" t="n">
-        <v>301.2157120144846</v>
+        <v>346.0106490736114</v>
       </c>
       <c r="AD26" t="n">
-        <v>243375.0082899496</v>
+        <v>279568.2337534896</v>
       </c>
       <c r="AE26" t="n">
-        <v>332996.4232897433</v>
+        <v>382517.5911015313</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.088675020521792e-06</v>
+        <v>5.753967298276166e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.959309895833333</v>
       </c>
       <c r="AH26" t="n">
-        <v>301215.7120144846</v>
+        <v>346010.6490736114</v>
       </c>
     </row>
     <row r="27">
@@ -25875,28 +25875,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>243.8848530702434</v>
+        <v>280.0780785337835</v>
       </c>
       <c r="AB27" t="n">
-        <v>333.6940154109053</v>
+        <v>383.2151832226937</v>
       </c>
       <c r="AC27" t="n">
-        <v>301.8467269226798</v>
+        <v>346.6416639818067</v>
       </c>
       <c r="AD27" t="n">
-        <v>243884.8530702434</v>
+        <v>280078.0785337835</v>
       </c>
       <c r="AE27" t="n">
-        <v>333694.0154109052</v>
+        <v>383215.1832226937</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.088016233686616e-06</v>
+        <v>5.752740028368857e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH27" t="n">
-        <v>301846.7269226798</v>
+        <v>346641.6639818067</v>
       </c>
     </row>
     <row r="28">
@@ -25981,28 +25981,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>244.5703746673198</v>
+        <v>280.7636001308599</v>
       </c>
       <c r="AB28" t="n">
-        <v>334.631976303103</v>
+        <v>384.153144114892</v>
       </c>
       <c r="AC28" t="n">
-        <v>302.695170143763</v>
+        <v>347.4901072028899</v>
       </c>
       <c r="AD28" t="n">
-        <v>244570.3746673198</v>
+        <v>280763.6001308599</v>
       </c>
       <c r="AE28" t="n">
-        <v>334631.976303103</v>
+        <v>384153.144114892</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.088298570901691e-06</v>
+        <v>5.753266001186275e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.959309895833333</v>
       </c>
       <c r="AH28" t="n">
-        <v>302695.170143763</v>
+        <v>347490.1072028899</v>
       </c>
     </row>
   </sheetData>
@@ -26278,28 +26278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.8631314012471</v>
+        <v>463.3450653576833</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.1070153203667</v>
+        <v>633.9691597639892</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.410486138938</v>
+        <v>573.4640329374175</v>
       </c>
       <c r="AD2" t="n">
-        <v>418863.1314012471</v>
+        <v>463345.0653576833</v>
       </c>
       <c r="AE2" t="n">
-        <v>573107.0153203667</v>
+        <v>633969.1597639892</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.189129177151339e-06</v>
+        <v>4.388103645275165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.569986979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>518410.486138938</v>
+        <v>573464.0329374175</v>
       </c>
     </row>
     <row r="3">
@@ -26384,28 +26384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.1008749531283</v>
+        <v>311.4623254204555</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.5098860555755</v>
+        <v>426.1564943882924</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.1945565794099</v>
+        <v>385.4847166782694</v>
       </c>
       <c r="AD3" t="n">
-        <v>278100.8749531283</v>
+        <v>311462.3254204555</v>
       </c>
       <c r="AE3" t="n">
-        <v>380509.8860555755</v>
+        <v>426156.4943882924</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.810711132711961e-06</v>
+        <v>5.634063031090004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.895182291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>344194.5565794099</v>
+        <v>385484.7166782694</v>
       </c>
     </row>
     <row r="4">
@@ -26490,28 +26490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.2844818029081</v>
+        <v>284.4753400696462</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.818513891512</v>
+        <v>389.2317104495485</v>
       </c>
       <c r="AC4" t="n">
-        <v>311.0049574781236</v>
+        <v>352.0839822943796</v>
       </c>
       <c r="AD4" t="n">
-        <v>251284.4818029081</v>
+        <v>284475.3400696462</v>
       </c>
       <c r="AE4" t="n">
-        <v>343818.513891512</v>
+        <v>389231.7104495486</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023912216240862e-06</v>
+        <v>6.061424039099223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.480143229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>311004.9574781236</v>
+        <v>352083.9822943796</v>
       </c>
     </row>
     <row r="5">
@@ -26596,28 +26596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.8979768522092</v>
+        <v>271.0888351189471</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.5025072470569</v>
+        <v>370.9157038050841</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.4370048011327</v>
+        <v>335.5160296173859</v>
       </c>
       <c r="AD5" t="n">
-        <v>237897.9768522092</v>
+        <v>271088.8351189471</v>
       </c>
       <c r="AE5" t="n">
-        <v>325502.5072470569</v>
+        <v>370915.7038050841</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.135196258407571e-06</v>
+        <v>6.284492607272133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>294437.0048011327</v>
+        <v>335516.0296173859</v>
       </c>
     </row>
     <row r="6">
@@ -26702,28 +26702,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.8271796195651</v>
+        <v>251.0682361063339</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.0914422980285</v>
+        <v>343.5226369893725</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.2104344717965</v>
+        <v>310.7373186522584</v>
       </c>
       <c r="AD6" t="n">
-        <v>228827.1796195651</v>
+        <v>251068.2361063339</v>
       </c>
       <c r="AE6" t="n">
-        <v>313091.4422980285</v>
+        <v>343522.6369893725</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.211150417105069e-06</v>
+        <v>6.436742517479811e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.1611328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>283210.4344717966</v>
+        <v>310737.3186522584</v>
       </c>
     </row>
     <row r="7">
@@ -26808,28 +26808,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.4714962717237</v>
+        <v>245.7125527584925</v>
       </c>
       <c r="AB7" t="n">
-        <v>305.7635600654419</v>
+        <v>336.1947547567859</v>
       </c>
       <c r="AC7" t="n">
-        <v>276.5819150347384</v>
+        <v>304.1087992152001</v>
       </c>
       <c r="AD7" t="n">
-        <v>223471.4962717237</v>
+        <v>245712.5527584925</v>
       </c>
       <c r="AE7" t="n">
-        <v>305763.5600654419</v>
+        <v>336194.7547567859</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.251672877107219e-06</v>
+        <v>6.517969681370769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.096028645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>276581.9150347384</v>
+        <v>304108.7992152001</v>
       </c>
     </row>
     <row r="8">
@@ -26914,28 +26914,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>218.0889041788288</v>
+        <v>240.3299606655976</v>
       </c>
       <c r="AB8" t="n">
-        <v>298.3988601007428</v>
+        <v>328.8300547920869</v>
       </c>
       <c r="AC8" t="n">
-        <v>269.9200916982466</v>
+        <v>297.4469758787084</v>
       </c>
       <c r="AD8" t="n">
-        <v>218088.9041788288</v>
+        <v>240329.9606655976</v>
       </c>
       <c r="AE8" t="n">
-        <v>298398.8601007428</v>
+        <v>328830.0547920869</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.285882793088934e-06</v>
+        <v>6.58654336746967e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.0439453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>269920.0916982465</v>
+        <v>297446.9758787084</v>
       </c>
     </row>
     <row r="9">
@@ -27020,28 +27020,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>213.6483642446344</v>
+        <v>235.8894207314032</v>
       </c>
       <c r="AB9" t="n">
-        <v>292.3231174599854</v>
+        <v>322.7543121513294</v>
       </c>
       <c r="AC9" t="n">
-        <v>264.4242094077628</v>
+        <v>291.9510935882245</v>
       </c>
       <c r="AD9" t="n">
-        <v>213648.3642446344</v>
+        <v>235889.4207314032</v>
       </c>
       <c r="AE9" t="n">
-        <v>292323.1174599854</v>
+        <v>322754.3121513294</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.311438414849084e-06</v>
+        <v>6.637769543692361e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.0048828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>264424.2094077627</v>
+        <v>291951.0935882245</v>
       </c>
     </row>
     <row r="10">
@@ -27126,28 +27126,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>198.4733909250053</v>
+        <v>231.7495005377604</v>
       </c>
       <c r="AB10" t="n">
-        <v>271.5600494915054</v>
+        <v>317.0898907020012</v>
       </c>
       <c r="AC10" t="n">
-        <v>245.6427395050389</v>
+        <v>286.827276571953</v>
       </c>
       <c r="AD10" t="n">
-        <v>198473.3909250053</v>
+        <v>231749.5005377604</v>
       </c>
       <c r="AE10" t="n">
-        <v>271560.0494915054</v>
+        <v>317089.8907020012</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.329256079422893e-06</v>
+        <v>6.673485005202203e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.977213541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>245642.7395050389</v>
+        <v>286827.276571953</v>
       </c>
     </row>
     <row r="11">
@@ -27232,28 +27232,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>194.7251442694083</v>
+        <v>228.0012538821634</v>
       </c>
       <c r="AB11" t="n">
-        <v>266.4315330563483</v>
+        <v>311.9613742668441</v>
       </c>
       <c r="AC11" t="n">
-        <v>241.0036814805336</v>
+        <v>282.1882185474477</v>
       </c>
       <c r="AD11" t="n">
-        <v>194725.1442694083</v>
+        <v>228001.2538821634</v>
       </c>
       <c r="AE11" t="n">
-        <v>266431.5330563483</v>
+        <v>311961.3742668441</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.344630178569438e-06</v>
+        <v>6.704302346276412e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>241003.6814805336</v>
+        <v>282188.2185474476</v>
       </c>
     </row>
     <row r="12">
@@ -27338,28 +27338,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>193.3142666170901</v>
+        <v>226.5903762298451</v>
       </c>
       <c r="AB12" t="n">
-        <v>264.5011080089184</v>
+        <v>310.0309492194142</v>
       </c>
       <c r="AC12" t="n">
-        <v>239.2574934902611</v>
+        <v>280.4420305571752</v>
       </c>
       <c r="AD12" t="n">
-        <v>193314.2666170901</v>
+        <v>226590.3762298451</v>
       </c>
       <c r="AE12" t="n">
-        <v>264501.1080089184</v>
+        <v>310030.9492194142</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.348499157162608e-06</v>
+        <v>6.712057703632835e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.949544270833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>239257.4934902611</v>
+        <v>280442.0305571752</v>
       </c>
     </row>
     <row r="13">
@@ -27444,28 +27444,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>193.435370200967</v>
+        <v>226.711479813722</v>
       </c>
       <c r="AB13" t="n">
-        <v>264.6668072750916</v>
+        <v>310.1966484855875</v>
       </c>
       <c r="AC13" t="n">
-        <v>239.4073786510313</v>
+        <v>280.5919157179454</v>
       </c>
       <c r="AD13" t="n">
-        <v>193435.370200967</v>
+        <v>226711.479813722</v>
       </c>
       <c r="AE13" t="n">
-        <v>264666.8072750916</v>
+        <v>310196.6484855875</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.349110048519424e-06</v>
+        <v>6.713282233741744e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>239407.3786510313</v>
+        <v>280591.9157179454</v>
       </c>
     </row>
   </sheetData>
@@ -27741,28 +27741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.6552677851045</v>
+        <v>352.1509229580211</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.6839984098489</v>
+        <v>481.8284285934245</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.2481922458387</v>
+        <v>435.843399618914</v>
       </c>
       <c r="AD2" t="n">
-        <v>309655.2677851045</v>
+        <v>352150.9229580211</v>
       </c>
       <c r="AE2" t="n">
-        <v>423683.9984098489</v>
+        <v>481828.4285934245</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.552809204359373e-06</v>
+        <v>5.340636502889785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.7626953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>383248.1922458386</v>
+        <v>435843.399618914</v>
       </c>
     </row>
     <row r="3">
@@ -27847,28 +27847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.056033327839</v>
+        <v>260.991780348458</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.4045700380017</v>
+        <v>357.1004680174827</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.4936777397444</v>
+        <v>323.0193005435481</v>
       </c>
       <c r="AD3" t="n">
-        <v>229056.033327839</v>
+        <v>260991.7803484579</v>
       </c>
       <c r="AE3" t="n">
-        <v>313404.5700380018</v>
+        <v>357100.4680174827</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.085537107703666e-06</v>
+        <v>6.455136592379415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.594075520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>283493.6777397444</v>
+        <v>323019.3005435481</v>
       </c>
     </row>
     <row r="4">
@@ -27953,28 +27953,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.2722331766449</v>
+        <v>231.5628206989398</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.7037459883737</v>
+        <v>316.8344671107938</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.2457042660715</v>
+        <v>286.5962302498011</v>
       </c>
       <c r="AD4" t="n">
-        <v>210272.2331766449</v>
+        <v>231562.8206989398</v>
       </c>
       <c r="AE4" t="n">
-        <v>287703.7459883737</v>
+        <v>316834.4671107937</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.269229070393754e-06</v>
+        <v>6.839431666039785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>260245.7042660716</v>
+        <v>286596.2302498011</v>
       </c>
     </row>
     <row r="5">
@@ -28059,28 +28059,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.102982137819</v>
+        <v>220.3935696601138</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.4214839644806</v>
+        <v>301.5522050869006</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.4219598809445</v>
+        <v>272.7724858646739</v>
       </c>
       <c r="AD5" t="n">
-        <v>199102.982137819</v>
+        <v>220393.5696601138</v>
       </c>
       <c r="AE5" t="n">
-        <v>272421.4839644806</v>
+        <v>301552.2050869006</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.373165631269209e-06</v>
+        <v>7.056873451367246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>246421.9598809445</v>
+        <v>272772.4858646739</v>
       </c>
     </row>
     <row r="6">
@@ -28165,28 +28165,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.0514274273876</v>
+        <v>213.3420149496825</v>
       </c>
       <c r="AB6" t="n">
-        <v>262.7732357170354</v>
+        <v>291.9039568394555</v>
       </c>
       <c r="AC6" t="n">
-        <v>237.694526904831</v>
+        <v>264.0450528885603</v>
       </c>
       <c r="AD6" t="n">
-        <v>192051.4274273877</v>
+        <v>213342.0149496825</v>
       </c>
       <c r="AE6" t="n">
-        <v>262773.2357170354</v>
+        <v>291903.9568394555</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.427042950580159e-06</v>
+        <v>7.169588172741073e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.037434895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>237694.5269048309</v>
+        <v>264045.0528885603</v>
       </c>
     </row>
     <row r="7">
@@ -28271,28 +28271,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.5774115376709</v>
+        <v>207.4278177037149</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.2327603944488</v>
+        <v>283.8118912515587</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.305282911269</v>
+        <v>256.7252826830846</v>
       </c>
       <c r="AD7" t="n">
-        <v>175577.4115376709</v>
+        <v>207427.8177037149</v>
       </c>
       <c r="AE7" t="n">
-        <v>240232.7603944488</v>
+        <v>283811.8912515587</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.466178247481223e-06</v>
+        <v>7.251461661298046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.98046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>217305.2829112691</v>
+        <v>256725.2826830845</v>
       </c>
     </row>
     <row r="8">
@@ -28377,28 +28377,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>172.7419784081222</v>
+        <v>204.5923845741663</v>
       </c>
       <c r="AB8" t="n">
-        <v>236.3531956961211</v>
+        <v>279.932326553231</v>
       </c>
       <c r="AC8" t="n">
-        <v>213.7959784227452</v>
+        <v>253.2159781945606</v>
       </c>
       <c r="AD8" t="n">
-        <v>172741.9784081222</v>
+        <v>204592.3845741663</v>
       </c>
       <c r="AE8" t="n">
-        <v>236353.1956961211</v>
+        <v>279932.3265532309</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.483147481909867e-06</v>
+        <v>7.286962360943345e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.9560546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>213795.9784227452</v>
+        <v>253215.9781945606</v>
       </c>
     </row>
     <row r="9">
@@ -28483,28 +28483,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>173.5979672162707</v>
+        <v>205.4483733823148</v>
       </c>
       <c r="AB9" t="n">
-        <v>237.5243973469902</v>
+        <v>281.1035282041001</v>
       </c>
       <c r="AC9" t="n">
-        <v>214.8554022318476</v>
+        <v>254.2754020036631</v>
       </c>
       <c r="AD9" t="n">
-        <v>173597.9672162707</v>
+        <v>205448.3733823148</v>
       </c>
       <c r="AE9" t="n">
-        <v>237524.3973469902</v>
+        <v>281103.5282041001</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.482617193333973e-06</v>
+        <v>7.285852964079429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.9560546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>214855.4022318476</v>
+        <v>254275.4020036631</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.9636590209037</v>
+        <v>280.6745632835683</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.011305890586</v>
+        <v>384.0313199723992</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.3702268723729</v>
+        <v>347.3799097855754</v>
       </c>
       <c r="AD2" t="n">
-        <v>249963.6590209038</v>
+        <v>280674.5632835683</v>
       </c>
       <c r="AE2" t="n">
-        <v>342011.3058905859</v>
+        <v>384031.3199723992</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.857663862964818e-06</v>
+        <v>6.212149076817408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.248372395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>309370.226872373</v>
+        <v>347379.9097855753</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.6844639939786</v>
+        <v>224.3100274020679</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.0076283919327</v>
+        <v>306.9108753513609</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.7156722788265</v>
+        <v>277.6197321600367</v>
       </c>
       <c r="AD3" t="n">
-        <v>193684.4639939786</v>
+        <v>224310.0274020679</v>
       </c>
       <c r="AE3" t="n">
-        <v>265007.6283919326</v>
+        <v>306910.8753513609</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.321744875762498e-06</v>
+        <v>7.220994264168645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3759765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>239715.6722788265</v>
+        <v>277619.7321600367</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.588831633997</v>
+        <v>199.1196915483357</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.3531182247184</v>
+        <v>272.4443465171168</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.0323995731775</v>
+        <v>246.4426404636449</v>
       </c>
       <c r="AD4" t="n">
-        <v>178588.831633997</v>
+        <v>199119.6915483357</v>
       </c>
       <c r="AE4" t="n">
-        <v>244353.1182247184</v>
+        <v>272444.3465171168</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.484228086153365e-06</v>
+        <v>7.57420932858169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.125325520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>221032.3995731775</v>
+        <v>246442.6404636449</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.1951028505884</v>
+        <v>190.7259627649271</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.8684481980854</v>
+        <v>260.9596764904838</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.6438103350471</v>
+        <v>236.0540512255145</v>
       </c>
       <c r="AD5" t="n">
-        <v>170195.1028505884</v>
+        <v>190725.9627649271</v>
       </c>
       <c r="AE5" t="n">
-        <v>232868.4481980854</v>
+        <v>260959.6764904838</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.559819532445942e-06</v>
+        <v>7.73853423025663e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.016276041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>210643.8103350471</v>
+        <v>236054.0512255145</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.0305926966075</v>
+        <v>188.7414074507174</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.2244287451046</v>
+        <v>258.2443203571821</v>
       </c>
       <c r="AC6" t="n">
-        <v>195.5882727386255</v>
+        <v>233.597844870548</v>
       </c>
       <c r="AD6" t="n">
-        <v>158030.5926966075</v>
+        <v>188741.4074507174</v>
       </c>
       <c r="AE6" t="n">
-        <v>216224.4287451046</v>
+        <v>258244.3203571821</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.576824865066189e-06</v>
+        <v>7.775501370691489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.991861979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>195588.2727386255</v>
+        <v>233597.844870548</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.9165680888268</v>
+        <v>189.6273828429368</v>
       </c>
       <c r="AB7" t="n">
-        <v>217.4366593632143</v>
+        <v>259.4565509752918</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.6848097679196</v>
+        <v>234.694381899842</v>
       </c>
       <c r="AD7" t="n">
-        <v>158916.5680888268</v>
+        <v>189627.3828429368</v>
       </c>
       <c r="AE7" t="n">
-        <v>217436.6593632143</v>
+        <v>259456.5509752918</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.577921983299753e-06</v>
+        <v>7.777886347493736e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.990234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>196684.8097679196</v>
+        <v>234694.381899842</v>
       </c>
     </row>
   </sheetData>
@@ -54508,28 +54508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7374576452236</v>
+        <v>179.1039974677527</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.2456396173957</v>
+        <v>245.0579908459752</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5618452399435</v>
+        <v>221.6700001407567</v>
       </c>
       <c r="AD2" t="n">
-        <v>150737.4576452236</v>
+        <v>179103.9974677527</v>
       </c>
       <c r="AE2" t="n">
-        <v>206245.6396173957</v>
+        <v>245057.9908459752</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.499185418994583e-06</v>
+        <v>8.322906869445374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.476888020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186561.8452399435</v>
+        <v>221670.0001407567</v>
       </c>
     </row>
     <row r="3">
@@ -54614,28 +54614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.7135721678787</v>
+        <v>156.7384163585106</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.4257849340255</v>
+        <v>214.4564160725247</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.4426924772253</v>
+        <v>193.9889967140947</v>
       </c>
       <c r="AD3" t="n">
-        <v>137713.5721678787</v>
+        <v>156738.4163585106</v>
       </c>
       <c r="AE3" t="n">
-        <v>188425.7849340255</v>
+        <v>214456.4160725247</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.706197397948429e-06</v>
+        <v>8.815290443159365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.1708984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>170442.6924772253</v>
+        <v>193988.9967140947</v>
       </c>
     </row>
   </sheetData>
@@ -54911,28 +54911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.035079185835</v>
+        <v>595.0428530444286</v>
       </c>
       <c r="AB2" t="n">
-        <v>751.2140170602707</v>
+        <v>814.1638829733309</v>
       </c>
       <c r="AC2" t="n">
-        <v>679.5192056075325</v>
+        <v>736.4612246685419</v>
       </c>
       <c r="AD2" t="n">
-        <v>549035.079185835</v>
+        <v>595042.8530444286</v>
       </c>
       <c r="AE2" t="n">
-        <v>751214.0170602708</v>
+        <v>814163.8829733309</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.887206143516907e-06</v>
+        <v>3.662271091557001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.492838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>679519.2056075325</v>
+        <v>736461.2246685419</v>
       </c>
     </row>
     <row r="3">
@@ -55017,28 +55017,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.7380453188972</v>
+        <v>375.2225628763373</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.212825906949</v>
+        <v>513.3960641785817</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.7181281361998</v>
+        <v>464.3982643692787</v>
       </c>
       <c r="AD3" t="n">
-        <v>340738.0453188972</v>
+        <v>375222.5628763373</v>
       </c>
       <c r="AE3" t="n">
-        <v>466212.825906949</v>
+        <v>513396.0641785817</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.571618724264272e-06</v>
+        <v>4.990427222131054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.232096354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>421718.1281361998</v>
+        <v>464398.2643692787</v>
       </c>
     </row>
     <row r="4">
@@ -55123,28 +55123,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.2708026879461</v>
+        <v>324.8405715914068</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.1613180816724</v>
+        <v>444.4612010059544</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.2567993033677</v>
+        <v>402.0424477871588</v>
       </c>
       <c r="AD4" t="n">
-        <v>290270.8026879461</v>
+        <v>324840.5715914068</v>
       </c>
       <c r="AE4" t="n">
-        <v>397161.3180816724</v>
+        <v>444461.2010059544</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.82027221583076e-06</v>
+        <v>5.472958765972707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.68359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>359256.7993033677</v>
+        <v>402042.4477871588</v>
       </c>
     </row>
     <row r="5">
@@ -55229,28 +55229,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.8006141666246</v>
+        <v>307.1997908694931</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.2578354164782</v>
+        <v>420.3243065659133</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.634631474991</v>
+        <v>380.2091446761311</v>
       </c>
       <c r="AD5" t="n">
-        <v>272800.6141666246</v>
+        <v>307199.7908694932</v>
       </c>
       <c r="AE5" t="n">
-        <v>373257.8354164782</v>
+        <v>420324.3065659133</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.949079648293718e-06</v>
+        <v>5.722919660762759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.4345703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>337634.631474991</v>
+        <v>380209.1446761311</v>
       </c>
     </row>
     <row r="6">
@@ -55335,28 +55335,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>262.6822201935574</v>
+        <v>297.0813968964259</v>
       </c>
       <c r="AB6" t="n">
-        <v>359.4134023904903</v>
+        <v>406.4798735399254</v>
       </c>
       <c r="AC6" t="n">
-        <v>325.1114917062196</v>
+        <v>367.6860049073597</v>
       </c>
       <c r="AD6" t="n">
-        <v>262682.2201935574</v>
+        <v>297081.3968964259</v>
       </c>
       <c r="AE6" t="n">
-        <v>359413.4023904903</v>
+        <v>406479.8735399254</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.027467046031114e-06</v>
+        <v>5.87503653557383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.294596354166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>325111.4917062196</v>
+        <v>367686.0049073597</v>
       </c>
     </row>
     <row r="7">
@@ -55441,28 +55441,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>255.7163599217608</v>
+        <v>278.7629620326222</v>
       </c>
       <c r="AB7" t="n">
-        <v>349.8824050543867</v>
+        <v>381.4157828069594</v>
       </c>
       <c r="AC7" t="n">
-        <v>316.4901193791401</v>
+        <v>345.0139958162758</v>
       </c>
       <c r="AD7" t="n">
-        <v>255716.3599217608</v>
+        <v>278762.9620326222</v>
       </c>
       <c r="AE7" t="n">
-        <v>349882.4050543867</v>
+        <v>381415.7828069595</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.077099267714088e-06</v>
+        <v>5.971351742740639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>316490.1193791401</v>
+        <v>345013.9958162758</v>
       </c>
     </row>
     <row r="8">
@@ -55547,28 +55547,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>250.6678393613038</v>
+        <v>273.714441472165</v>
       </c>
       <c r="AB8" t="n">
-        <v>342.9747964985648</v>
+        <v>374.5081742511341</v>
       </c>
       <c r="AC8" t="n">
-        <v>310.2417632889943</v>
+        <v>338.7656397261289</v>
       </c>
       <c r="AD8" t="n">
-        <v>250667.8393613038</v>
+        <v>273714.4414721651</v>
       </c>
       <c r="AE8" t="n">
-        <v>342974.7964985648</v>
+        <v>374508.174251134</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.114421910606642e-06</v>
+        <v>6.043779249717268e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.146484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>310241.7632889943</v>
+        <v>338765.6397261289</v>
       </c>
     </row>
     <row r="9">
@@ -55653,28 +55653,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>245.8550328840396</v>
+        <v>268.9016349949009</v>
       </c>
       <c r="AB9" t="n">
-        <v>336.3897023503387</v>
+        <v>367.9230801029046</v>
       </c>
       <c r="AC9" t="n">
-        <v>304.285141284035</v>
+        <v>332.8090177211687</v>
       </c>
       <c r="AD9" t="n">
-        <v>245855.0328840396</v>
+        <v>268901.6349949008</v>
       </c>
       <c r="AE9" t="n">
-        <v>336389.7023503387</v>
+        <v>367923.0801029046</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.14278318013977e-06</v>
+        <v>6.098816510955444e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.099283854166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>304285.1412840351</v>
+        <v>332809.0177211687</v>
       </c>
     </row>
     <row r="10">
@@ -55759,28 +55759,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>241.8425865545936</v>
+        <v>264.8891886654548</v>
       </c>
       <c r="AB10" t="n">
-        <v>330.8996962657546</v>
+        <v>362.4330740183177</v>
       </c>
       <c r="AC10" t="n">
-        <v>299.31909367489</v>
+        <v>327.8429701120228</v>
       </c>
       <c r="AD10" t="n">
-        <v>241842.5865545936</v>
+        <v>264889.1886654548</v>
       </c>
       <c r="AE10" t="n">
-        <v>330899.6962657546</v>
+        <v>362433.0740183177</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.169273393696755e-06</v>
+        <v>6.150222841764713e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.056966145833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>299319.09367489</v>
+        <v>327842.9701120228</v>
       </c>
     </row>
     <row r="11">
@@ -55865,28 +55865,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>238.5498182703523</v>
+        <v>261.5964203812135</v>
       </c>
       <c r="AB11" t="n">
-        <v>326.3943854325736</v>
+        <v>357.9277631851343</v>
       </c>
       <c r="AC11" t="n">
-        <v>295.2437633843829</v>
+        <v>323.767639821515</v>
       </c>
       <c r="AD11" t="n">
-        <v>238549.8182703523</v>
+        <v>261596.4203812135</v>
       </c>
       <c r="AE11" t="n">
-        <v>326394.3854325736</v>
+        <v>357927.7631851343</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.182567738790408e-06</v>
+        <v>6.176021557970109e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.035807291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>295243.7633843829</v>
+        <v>323767.6398215151</v>
       </c>
     </row>
     <row r="12">
@@ -55971,28 +55971,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>235.591387497958</v>
+        <v>258.6379896088191</v>
       </c>
       <c r="AB12" t="n">
-        <v>322.3465299330315</v>
+        <v>353.8799076855901</v>
       </c>
       <c r="AC12" t="n">
-        <v>291.5822295325149</v>
+        <v>320.1061059696465</v>
       </c>
       <c r="AD12" t="n">
-        <v>235591.3874979579</v>
+        <v>258637.9896088191</v>
       </c>
       <c r="AE12" t="n">
-        <v>322346.5299330315</v>
+        <v>353879.9076855901</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.19664989692665e-06</v>
+        <v>6.203349086987676e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.0146484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>291582.2295325149</v>
+        <v>320106.1059696465</v>
       </c>
     </row>
     <row r="13">
@@ -56077,28 +56077,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>220.8418891929154</v>
+        <v>255.3263172418041</v>
       </c>
       <c r="AB13" t="n">
-        <v>302.1656156501414</v>
+        <v>349.3487314522015</v>
       </c>
       <c r="AC13" t="n">
-        <v>273.3273533846863</v>
+        <v>316.0073788365318</v>
       </c>
       <c r="AD13" t="n">
-        <v>220841.8891929154</v>
+        <v>255326.3172418041</v>
       </c>
       <c r="AE13" t="n">
-        <v>302165.6156501414</v>
+        <v>349348.7314522015</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.20925490560804e-06</v>
+        <v>6.22781009198242e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>273327.3533846863</v>
+        <v>316007.3788365318</v>
       </c>
     </row>
     <row r="14">
@@ -56183,28 +56183,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>216.7543302173434</v>
+        <v>251.238758266232</v>
       </c>
       <c r="AB14" t="n">
-        <v>296.5728371293915</v>
+        <v>343.7559529314517</v>
       </c>
       <c r="AC14" t="n">
-        <v>268.2683417964411</v>
+        <v>310.9483672482866</v>
       </c>
       <c r="AD14" t="n">
-        <v>216754.3302173433</v>
+        <v>251238.758266232</v>
       </c>
       <c r="AE14" t="n">
-        <v>296572.8371293916</v>
+        <v>343755.9529314517</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.225700502872041e-06</v>
+        <v>6.259724059436502e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.969075520833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>268268.3417964411</v>
+        <v>310948.3672482866</v>
       </c>
     </row>
     <row r="15">
@@ -56289,28 +56289,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>214.9871660135613</v>
+        <v>249.4715940624499</v>
       </c>
       <c r="AB15" t="n">
-        <v>294.1549251039958</v>
+        <v>341.3380409060558</v>
       </c>
       <c r="AC15" t="n">
-        <v>266.0811919011875</v>
+        <v>308.7612173530329</v>
       </c>
       <c r="AD15" t="n">
-        <v>214987.1660135612</v>
+        <v>249471.5940624499</v>
       </c>
       <c r="AE15" t="n">
-        <v>294154.9251039958</v>
+        <v>341338.0409060558</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.231313670800473e-06</v>
+        <v>6.270616850723224e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH15" t="n">
-        <v>266081.1919011875</v>
+        <v>308761.2173530329</v>
       </c>
     </row>
     <row r="16">
@@ -56395,28 +56395,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>212.3054099965483</v>
+        <v>246.7898380454369</v>
       </c>
       <c r="AB16" t="n">
-        <v>290.4856282107949</v>
+        <v>337.668744012855</v>
       </c>
       <c r="AC16" t="n">
-        <v>262.762087553582</v>
+        <v>305.4421130054275</v>
       </c>
       <c r="AD16" t="n">
-        <v>212305.4099965483</v>
+        <v>246789.8380454369</v>
       </c>
       <c r="AE16" t="n">
-        <v>290485.6282107949</v>
+        <v>337668.7440128551</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.238797894705048e-06</v>
+        <v>6.285140572438854e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>262762.087553582</v>
+        <v>305442.1130054275</v>
       </c>
     </row>
     <row r="17">
@@ -56501,28 +56501,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>211.3646593692671</v>
+        <v>245.8490874181558</v>
       </c>
       <c r="AB17" t="n">
-        <v>289.198451699561</v>
+        <v>336.3815675016211</v>
       </c>
       <c r="AC17" t="n">
-        <v>261.5977573620162</v>
+        <v>304.2777828138617</v>
       </c>
       <c r="AD17" t="n">
-        <v>211364.6593692671</v>
+        <v>245849.0874181558</v>
       </c>
       <c r="AE17" t="n">
-        <v>289198.451699561</v>
+        <v>336381.5675016211</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.244804969154773e-06</v>
+        <v>6.296797770131663e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.939778645833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>261597.7573620162</v>
+        <v>304277.7828138617</v>
       </c>
     </row>
     <row r="18">
@@ -56607,28 +56607,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>211.9985215693106</v>
+        <v>246.4829496181992</v>
       </c>
       <c r="AB18" t="n">
-        <v>290.0657299256866</v>
+        <v>337.2488457277466</v>
       </c>
       <c r="AC18" t="n">
-        <v>262.3822637714733</v>
+        <v>305.0622892233188</v>
       </c>
       <c r="AD18" t="n">
-        <v>211998.5215693106</v>
+        <v>246482.9496181992</v>
       </c>
       <c r="AE18" t="n">
-        <v>290065.7299256866</v>
+        <v>337248.8457277467</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.245198875676066e-06</v>
+        <v>6.297562176537748e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.939778645833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>262382.2637714733</v>
+        <v>305062.2892233187</v>
       </c>
     </row>
   </sheetData>
@@ -56904,28 +56904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>786.8270694441852</v>
+        <v>846.6759716187869</v>
       </c>
       <c r="AB2" t="n">
-        <v>1076.571508773963</v>
+        <v>1158.459417076471</v>
       </c>
       <c r="AC2" t="n">
-        <v>973.8250349541779</v>
+        <v>1047.897676218696</v>
       </c>
       <c r="AD2" t="n">
-        <v>786827.0694441852</v>
+        <v>846675.9716187869</v>
       </c>
       <c r="AE2" t="n">
-        <v>1076571.508773963</v>
+        <v>1158459.417076471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542237028840723e-06</v>
+        <v>2.893841576569532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.0146484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>973825.0349541779</v>
+        <v>1047897.676218695</v>
       </c>
     </row>
     <row r="3">
@@ -57010,28 +57010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.5708216315913</v>
+        <v>462.4328035935175</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.2340877301812</v>
+        <v>632.7209629721091</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.0980625152542</v>
+        <v>572.3349622954992</v>
       </c>
       <c r="AD3" t="n">
-        <v>414570.8216315914</v>
+        <v>462432.8035935175</v>
       </c>
       <c r="AE3" t="n">
-        <v>567234.0877301812</v>
+        <v>632720.9629721091</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.298551889772336e-06</v>
+        <v>4.312984904483585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>513098.0625152542</v>
+        <v>572334.9622954992</v>
       </c>
     </row>
     <row r="4">
@@ -57116,28 +57116,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.0160520869637</v>
+        <v>391.7926931943183</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.6979393824697</v>
+        <v>536.0680475021999</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.7751886765132</v>
+        <v>484.9064654248192</v>
       </c>
       <c r="AD4" t="n">
-        <v>344016.0520869637</v>
+        <v>391792.6931943183</v>
       </c>
       <c r="AE4" t="n">
-        <v>470697.9393824697</v>
+        <v>536068.0475021999</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.581814105566672e-06</v>
+        <v>4.844495925038596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.983072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>425775.1886765131</v>
+        <v>484906.4654248192</v>
       </c>
     </row>
     <row r="5">
@@ -57222,28 +57222,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.4273229728733</v>
+        <v>356.3878150852467</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.4227995472889</v>
+        <v>487.6255313203832</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.5803428887588</v>
+        <v>441.0872349978966</v>
       </c>
       <c r="AD5" t="n">
-        <v>320427.3229728733</v>
+        <v>356387.8150852467</v>
       </c>
       <c r="AE5" t="n">
-        <v>438422.799547289</v>
+        <v>487625.5313203832</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.724726298861906e-06</v>
+        <v>5.11265525400203e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.6689453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>396580.3428887588</v>
+        <v>441087.2349978967</v>
       </c>
     </row>
     <row r="6">
@@ -57328,28 +57328,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.1752066819009</v>
+        <v>341.9651065936822</v>
       </c>
       <c r="AB6" t="n">
-        <v>418.9224252789855</v>
+        <v>467.8917452772327</v>
       </c>
       <c r="AC6" t="n">
-        <v>378.9410569716749</v>
+        <v>423.2368137981618</v>
       </c>
       <c r="AD6" t="n">
-        <v>306175.2066819009</v>
+        <v>341965.1065936822</v>
       </c>
       <c r="AE6" t="n">
-        <v>418922.4252789855</v>
+        <v>467891.7452772327</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.81667976187856e-06</v>
+        <v>5.285196017458581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.4833984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>378941.0569716749</v>
+        <v>423236.8137981618</v>
       </c>
     </row>
     <row r="7">
@@ -57434,28 +57434,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>296.7012652904111</v>
+        <v>332.4911652021923</v>
       </c>
       <c r="AB7" t="n">
-        <v>405.9597607063531</v>
+        <v>454.9290807046002</v>
       </c>
       <c r="AC7" t="n">
-        <v>367.2155309126405</v>
+        <v>411.5112877391274</v>
       </c>
       <c r="AD7" t="n">
-        <v>296701.2652904111</v>
+        <v>332491.1652021923</v>
       </c>
       <c r="AE7" t="n">
-        <v>405959.7607063531</v>
+        <v>454929.0807046002</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.880449346137788e-06</v>
+        <v>5.404852769824735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.361328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>367215.5309126405</v>
+        <v>411511.2877391274</v>
       </c>
     </row>
     <row r="8">
@@ -57540,28 +57540,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>290.1946487339142</v>
+        <v>325.9845486456954</v>
       </c>
       <c r="AB8" t="n">
-        <v>397.0571208820906</v>
+        <v>446.0264408803377</v>
       </c>
       <c r="AC8" t="n">
-        <v>359.1625465382723</v>
+        <v>403.4583033647591</v>
       </c>
       <c r="AD8" t="n">
-        <v>290194.6487339142</v>
+        <v>325984.5486456954</v>
       </c>
       <c r="AE8" t="n">
-        <v>397057.1208820906</v>
+        <v>446026.4408803377</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.924290935316006e-06</v>
+        <v>5.487116787076465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.281575520833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>359162.5465382723</v>
+        <v>403458.3033647591</v>
       </c>
     </row>
     <row r="9">
@@ -57646,28 +57646,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>285.4625441402332</v>
+        <v>309.4362950570331</v>
       </c>
       <c r="AB9" t="n">
-        <v>390.5824466112955</v>
+        <v>423.3843902629067</v>
       </c>
       <c r="AC9" t="n">
-        <v>353.3058060926194</v>
+        <v>382.977178279938</v>
       </c>
       <c r="AD9" t="n">
-        <v>285462.5441402332</v>
+        <v>309436.2950570331</v>
       </c>
       <c r="AE9" t="n">
-        <v>390582.4466112955</v>
+        <v>423384.3902629067</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.955416565728248e-06</v>
+        <v>5.545520678112325e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.226236979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>353305.8060926194</v>
+        <v>382977.1782799379</v>
       </c>
     </row>
     <row r="10">
@@ -57752,28 +57752,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>280.5861574324471</v>
+        <v>304.5599083492471</v>
       </c>
       <c r="AB10" t="n">
-        <v>383.9103591867042</v>
+        <v>416.7123028383155</v>
       </c>
       <c r="AC10" t="n">
-        <v>347.2704933274976</v>
+        <v>376.9418655148161</v>
       </c>
       <c r="AD10" t="n">
-        <v>280586.1574324471</v>
+        <v>304559.9083492471</v>
       </c>
       <c r="AE10" t="n">
-        <v>383910.3591867042</v>
+        <v>416712.3028383154</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.98454939663239e-06</v>
+        <v>5.600185295636744e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>347270.4933274976</v>
+        <v>376941.8655148161</v>
       </c>
     </row>
     <row r="11">
@@ -57858,28 +57858,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>276.747168340452</v>
+        <v>300.7209192572521</v>
       </c>
       <c r="AB11" t="n">
-        <v>378.6576849467911</v>
+        <v>411.4596285984023</v>
       </c>
       <c r="AC11" t="n">
-        <v>342.5191269448672</v>
+        <v>372.1904991321857</v>
       </c>
       <c r="AD11" t="n">
-        <v>276747.1683404521</v>
+        <v>300720.9192572521</v>
       </c>
       <c r="AE11" t="n">
-        <v>378657.684946791</v>
+        <v>411459.6285984023</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.007419143368214e-06</v>
+        <v>5.643097910696629e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.135091145833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>342519.1269448672</v>
+        <v>372190.4991321857</v>
       </c>
     </row>
     <row r="12">
@@ -57964,28 +57964,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>274.1871072305055</v>
+        <v>298.1608581473055</v>
       </c>
       <c r="AB12" t="n">
-        <v>375.1548963942371</v>
+        <v>407.9568400458483</v>
       </c>
       <c r="AC12" t="n">
-        <v>339.3506396155744</v>
+        <v>369.0220118028928</v>
       </c>
       <c r="AD12" t="n">
-        <v>274187.1072305056</v>
+        <v>298160.8581473056</v>
       </c>
       <c r="AE12" t="n">
-        <v>375154.8963942371</v>
+        <v>407956.8400458483</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.018996359558133e-06</v>
+        <v>5.664821309191676e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.115559895833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>339350.6396155744</v>
+        <v>369022.0118028928</v>
       </c>
     </row>
     <row r="13">
@@ -58070,28 +58070,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>270.1378728784177</v>
+        <v>294.1116237952177</v>
       </c>
       <c r="AB13" t="n">
-        <v>369.6145553140987</v>
+        <v>402.4164989657098</v>
       </c>
       <c r="AC13" t="n">
-        <v>334.3390609122068</v>
+        <v>364.0104330995252</v>
       </c>
       <c r="AD13" t="n">
-        <v>270137.8728784177</v>
+        <v>294111.6237952177</v>
       </c>
       <c r="AE13" t="n">
-        <v>369614.5553140987</v>
+        <v>402416.4989657098</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.041676315864614e-06</v>
+        <v>5.707377802964756e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH13" t="n">
-        <v>334339.0609122068</v>
+        <v>364010.4330995252</v>
       </c>
     </row>
     <row r="14">
@@ -58176,28 +58176,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>268.695268482819</v>
+        <v>292.6690193996189</v>
       </c>
       <c r="AB14" t="n">
-        <v>367.6407203368262</v>
+        <v>400.4426639884374</v>
       </c>
       <c r="AC14" t="n">
-        <v>332.5536059748704</v>
+        <v>362.2249781621889</v>
       </c>
       <c r="AD14" t="n">
-        <v>268695.268482819</v>
+        <v>292669.019399619</v>
       </c>
       <c r="AE14" t="n">
-        <v>367640.7203368262</v>
+        <v>400442.6639884374</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.048318980891617e-06</v>
+        <v>5.719842048002898e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.066731770833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>332553.6059748704</v>
+        <v>362224.9781621889</v>
       </c>
     </row>
     <row r="15">
@@ -58282,28 +58282,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>265.7181944463341</v>
+        <v>289.691945363134</v>
       </c>
       <c r="AB15" t="n">
-        <v>363.5673563008705</v>
+        <v>396.3692999524817</v>
       </c>
       <c r="AC15" t="n">
-        <v>328.8689980855041</v>
+        <v>358.5403702728225</v>
       </c>
       <c r="AD15" t="n">
-        <v>265718.194446334</v>
+        <v>289691.945363134</v>
       </c>
       <c r="AE15" t="n">
-        <v>363567.3563008705</v>
+        <v>396369.2999524817</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.062458367877666e-06</v>
+        <v>5.746373083869798e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.0439453125</v>
       </c>
       <c r="AH15" t="n">
-        <v>328868.998085504</v>
+        <v>358540.3702728225</v>
       </c>
     </row>
     <row r="16">
@@ -58388,28 +58388,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>264.144274960249</v>
+        <v>288.118025877049</v>
       </c>
       <c r="AB16" t="n">
-        <v>361.4138502235818</v>
+        <v>394.2157938751931</v>
       </c>
       <c r="AC16" t="n">
-        <v>326.921019605767</v>
+        <v>356.5923917930855</v>
       </c>
       <c r="AD16" t="n">
-        <v>264144.274960249</v>
+        <v>288118.025877049</v>
       </c>
       <c r="AE16" t="n">
-        <v>361413.8502235818</v>
+        <v>394215.793875193</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.068341871187297e-06</v>
+        <v>5.757412843760723e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.0341796875</v>
       </c>
       <c r="AH16" t="n">
-        <v>326921.019605767</v>
+        <v>356592.3917930855</v>
       </c>
     </row>
     <row r="17">
@@ -58494,28 +58494,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>261.806011463622</v>
+        <v>285.779762380422</v>
       </c>
       <c r="AB17" t="n">
-        <v>358.2145349505917</v>
+        <v>391.0164786022029</v>
       </c>
       <c r="AC17" t="n">
-        <v>324.027042492164</v>
+        <v>353.6984146794824</v>
       </c>
       <c r="AD17" t="n">
-        <v>261806.011463622</v>
+        <v>285779.762380422</v>
       </c>
       <c r="AE17" t="n">
-        <v>358214.5349505917</v>
+        <v>391016.478602203</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.07754670701043e-06</v>
+        <v>5.774684726170718e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH17" t="n">
-        <v>324027.0424921639</v>
+        <v>353698.4146794824</v>
       </c>
     </row>
     <row r="18">
@@ -58600,28 +58600,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>259.3919584248704</v>
+        <v>283.3657093416704</v>
       </c>
       <c r="AB18" t="n">
-        <v>354.9115210824681</v>
+        <v>387.7134647340793</v>
       </c>
       <c r="AC18" t="n">
-        <v>321.0392636318049</v>
+        <v>350.7106358191234</v>
       </c>
       <c r="AD18" t="n">
-        <v>259391.9584248704</v>
+        <v>283365.7093416704</v>
       </c>
       <c r="AE18" t="n">
-        <v>354911.5210824681</v>
+        <v>387713.4647340793</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.08466384811079e-06</v>
+        <v>5.788039274425869e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>321039.263631805</v>
+        <v>350710.6358191234</v>
       </c>
     </row>
     <row r="19">
@@ -58706,28 +58706,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>245.3845342612136</v>
+        <v>281.2596855190184</v>
       </c>
       <c r="AB19" t="n">
-        <v>335.7459453776542</v>
+        <v>384.8319100287133</v>
       </c>
       <c r="AC19" t="n">
-        <v>303.7028235733048</v>
+        <v>348.10409265055</v>
       </c>
       <c r="AD19" t="n">
-        <v>245384.5342612136</v>
+        <v>281259.6855190184</v>
       </c>
       <c r="AE19" t="n">
-        <v>335745.9453776542</v>
+        <v>384831.9100287132</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.092729941357865e-06</v>
+        <v>5.803174429115041e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>303702.8235733048</v>
+        <v>348104.09265055</v>
       </c>
     </row>
     <row r="20">
@@ -58812,28 +58812,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>243.5467144744042</v>
+        <v>279.4218657322089</v>
       </c>
       <c r="AB20" t="n">
-        <v>333.231359266456</v>
+        <v>382.3173239175137</v>
       </c>
       <c r="AC20" t="n">
-        <v>301.4282260313148</v>
+        <v>345.8294951085596</v>
       </c>
       <c r="AD20" t="n">
-        <v>243546.7144744041</v>
+        <v>279421.8657322089</v>
       </c>
       <c r="AE20" t="n">
-        <v>333231.359266456</v>
+        <v>382317.3239175137</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.098993025526182e-06</v>
+        <v>5.814926431579573e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.983723958333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>301428.2260313148</v>
+        <v>345829.4951085596</v>
       </c>
     </row>
     <row r="21">
@@ -58918,28 +58918,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>240.4865062488413</v>
+        <v>276.3616575066461</v>
       </c>
       <c r="AB21" t="n">
-        <v>329.0442473653844</v>
+        <v>378.1302120164399</v>
       </c>
       <c r="AC21" t="n">
-        <v>297.6407262134316</v>
+        <v>342.0419952906759</v>
       </c>
       <c r="AD21" t="n">
-        <v>240486.5062488413</v>
+        <v>276361.6575066461</v>
       </c>
       <c r="AE21" t="n">
-        <v>329044.2473653844</v>
+        <v>378130.2120164399</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.106679537914571e-06</v>
+        <v>5.829349343695137e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.972330729166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>297640.7262134316</v>
+        <v>342041.9952906759</v>
       </c>
     </row>
     <row r="22">
@@ -59024,28 +59024,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>239.9014486164491</v>
+        <v>275.7765998742539</v>
       </c>
       <c r="AB22" t="n">
-        <v>328.2437457018248</v>
+        <v>377.3297103528799</v>
       </c>
       <c r="AC22" t="n">
-        <v>296.9166233051308</v>
+        <v>341.3178923823749</v>
       </c>
       <c r="AD22" t="n">
-        <v>239901.4486164491</v>
+        <v>275776.5998742539</v>
       </c>
       <c r="AE22" t="n">
-        <v>328243.7457018248</v>
+        <v>377329.7103528799</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.107059118773257e-06</v>
+        <v>5.830061586268745e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.970703125</v>
       </c>
       <c r="AH22" t="n">
-        <v>296916.6233051307</v>
+        <v>341317.8923823748</v>
       </c>
     </row>
     <row r="23">
@@ -59130,28 +59130,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>237.28267638835</v>
+        <v>273.1578276461548</v>
       </c>
       <c r="AB23" t="n">
-        <v>324.6606260072645</v>
+        <v>373.7465906583178</v>
       </c>
       <c r="AC23" t="n">
-        <v>293.6754715252781</v>
+        <v>338.0767406025217</v>
       </c>
       <c r="AD23" t="n">
-        <v>237282.67638835</v>
+        <v>273157.8276461548</v>
       </c>
       <c r="AE23" t="n">
-        <v>324660.6260072645</v>
+        <v>373746.5906583178</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.114460945517632e-06</v>
+        <v>5.843950316454102e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.959309895833333</v>
       </c>
       <c r="AH23" t="n">
-        <v>293675.4715252781</v>
+        <v>338076.7406025217</v>
       </c>
     </row>
     <row r="24">
@@ -59236,28 +59236,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>237.5554352121906</v>
+        <v>273.4305864699953</v>
       </c>
       <c r="AB24" t="n">
-        <v>325.0338266633131</v>
+        <v>374.1197913143666</v>
       </c>
       <c r="AC24" t="n">
-        <v>294.0130544345039</v>
+        <v>338.4143235117476</v>
       </c>
       <c r="AD24" t="n">
-        <v>237555.4352121906</v>
+        <v>273430.5864699953</v>
       </c>
       <c r="AE24" t="n">
-        <v>325033.8266633131</v>
+        <v>374119.7913143666</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.112752831653545e-06</v>
+        <v>5.840745224872864e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.962565104166667</v>
       </c>
       <c r="AH24" t="n">
-        <v>294013.0544345039</v>
+        <v>338414.3235117476</v>
       </c>
     </row>
     <row r="25">
@@ -59342,28 +59342,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>238.0151699729048</v>
+        <v>273.8903212307095</v>
       </c>
       <c r="AB25" t="n">
-        <v>325.6628560449881</v>
+        <v>374.7488206960419</v>
       </c>
       <c r="AC25" t="n">
-        <v>294.5820501348404</v>
+        <v>338.9833192120841</v>
       </c>
       <c r="AD25" t="n">
-        <v>238015.1699729048</v>
+        <v>273890.3212307095</v>
       </c>
       <c r="AE25" t="n">
-        <v>325662.8560449881</v>
+        <v>374748.8206960419</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.112657936438874e-06</v>
+        <v>5.840567164229464e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.962565104166667</v>
       </c>
       <c r="AH25" t="n">
-        <v>294582.0501348404</v>
+        <v>338983.3192120841</v>
       </c>
     </row>
     <row r="26">
@@ -59448,28 +59448,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>238.3273328934016</v>
+        <v>274.2024841512063</v>
       </c>
       <c r="AB26" t="n">
-        <v>326.0899711244678</v>
+        <v>375.1759357755217</v>
       </c>
       <c r="AC26" t="n">
-        <v>294.9684019505944</v>
+        <v>339.3696710278382</v>
       </c>
       <c r="AD26" t="n">
-        <v>238327.3328934016</v>
+        <v>274202.4841512063</v>
       </c>
       <c r="AE26" t="n">
-        <v>326089.9711244677</v>
+        <v>375175.9357755217</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.113037517297559e-06</v>
+        <v>5.841279406803071e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH26" t="n">
-        <v>294968.4019505944</v>
+        <v>339369.6710278382</v>
       </c>
     </row>
   </sheetData>
@@ -59745,28 +59745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9300396291995</v>
+        <v>149.2400263183071</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.8300593943036</v>
+        <v>204.196788013902</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9080326732165</v>
+        <v>184.7085331579052</v>
       </c>
       <c r="AD2" t="n">
-        <v>121930.0396291995</v>
+        <v>149240.0263183071</v>
       </c>
       <c r="AE2" t="n">
-        <v>166830.0593943037</v>
+        <v>204196.788013902</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.688649384589228e-06</v>
+        <v>9.225032180983382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.380859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>150908.0326732165</v>
+        <v>184708.5331579052</v>
       </c>
     </row>
   </sheetData>
@@ -60042,28 +60042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.9337110369543</v>
+        <v>383.3756414685341</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.1629855434209</v>
+        <v>524.5514659968673</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.3369041161388</v>
+        <v>474.4890102947319</v>
       </c>
       <c r="AD2" t="n">
-        <v>350933.7110369542</v>
+        <v>383375.6414685341</v>
       </c>
       <c r="AE2" t="n">
-        <v>480162.9855434209</v>
+        <v>524551.4659968673</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424988144232617e-06</v>
+        <v>4.993737971553323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.014973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>434336.9041161388</v>
+        <v>474489.0102947319</v>
       </c>
     </row>
     <row r="3">
@@ -60148,28 +60148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.5081796519363</v>
+        <v>277.9500205749681</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.9151224560906</v>
+        <v>380.3034804401512</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.8558546288168</v>
+        <v>344.0078500262296</v>
       </c>
       <c r="AD3" t="n">
-        <v>245508.1796519363</v>
+        <v>277950.0205749681</v>
       </c>
       <c r="AE3" t="n">
-        <v>335915.1224560906</v>
+        <v>380303.4804401512</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.988097919741187e-06</v>
+        <v>6.153340617363318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.693359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>303855.8546288168</v>
+        <v>344007.8500262296</v>
       </c>
     </row>
     <row r="4">
@@ -60254,28 +60254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.8840686693987</v>
+        <v>256.1553173918348</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.3280598213501</v>
+        <v>350.4830060303785</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.0925397262233</v>
+        <v>317.0333998409322</v>
       </c>
       <c r="AD4" t="n">
-        <v>223884.0686693987</v>
+        <v>256155.3173918348</v>
       </c>
       <c r="AE4" t="n">
-        <v>306328.05982135</v>
+        <v>350483.0060303785</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.187715527614492e-06</v>
+        <v>6.564409855206133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.3369140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>277092.5397262233</v>
+        <v>317033.3998409322</v>
       </c>
     </row>
     <row r="5">
@@ -60360,28 +60360,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.8850668599222</v>
+        <v>234.5130503171588</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.2787403039187</v>
+        <v>320.8711014293839</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.4795061416781</v>
+        <v>290.2476138544781</v>
       </c>
       <c r="AD5" t="n">
-        <v>212885.0668599222</v>
+        <v>234513.0503171588</v>
       </c>
       <c r="AE5" t="n">
-        <v>291278.7403039187</v>
+        <v>320871.1014293839</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.287106284204813e-06</v>
+        <v>6.76908359614253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.174153645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>263479.5061416781</v>
+        <v>290247.6138544781</v>
       </c>
     </row>
     <row r="6">
@@ -60466,28 +60466,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.895912684507</v>
+        <v>226.5238961417436</v>
       </c>
       <c r="AB6" t="n">
-        <v>280.3476271045139</v>
+        <v>309.9399882299792</v>
       </c>
       <c r="AC6" t="n">
-        <v>253.5916430441074</v>
+        <v>280.3597507569073</v>
       </c>
       <c r="AD6" t="n">
-        <v>204895.912684507</v>
+        <v>226523.8961417435</v>
       </c>
       <c r="AE6" t="n">
-        <v>280347.6271045139</v>
+        <v>309939.9882299792</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.350022409827708e-06</v>
+        <v>6.898645732886704e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>253591.6430441074</v>
+        <v>280359.7507569073</v>
       </c>
     </row>
     <row r="7">
@@ -60572,28 +60572,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>199.59602260969</v>
+        <v>221.2240060669266</v>
       </c>
       <c r="AB7" t="n">
-        <v>273.0960836895047</v>
+        <v>302.68844481497</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.0321767550192</v>
+        <v>273.8002844678192</v>
       </c>
       <c r="AD7" t="n">
-        <v>199596.02260969</v>
+        <v>221224.0060669266</v>
       </c>
       <c r="AE7" t="n">
-        <v>273096.0836895047</v>
+        <v>302688.44481497</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.384824851409808e-06</v>
+        <v>6.970313825138882e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>247032.1767550192</v>
+        <v>273800.2844678191</v>
       </c>
     </row>
     <row r="8">
@@ -60678,28 +60678,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.5501620813866</v>
+        <v>215.9066621498433</v>
       </c>
       <c r="AB8" t="n">
-        <v>251.1414294212851</v>
+        <v>295.4130202829627</v>
       </c>
       <c r="AC8" t="n">
-        <v>227.1728438766007</v>
+        <v>267.219216242022</v>
       </c>
       <c r="AD8" t="n">
-        <v>183550.1620813866</v>
+        <v>215906.6621498433</v>
       </c>
       <c r="AE8" t="n">
-        <v>251141.4294212851</v>
+        <v>295413.0202829628</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.417014497077336e-06</v>
+        <v>7.036601429984739e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.978841145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>227172.8438766007</v>
+        <v>267219.216242022</v>
       </c>
     </row>
     <row r="9">
@@ -60784,28 +60784,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>179.916502230983</v>
+        <v>212.2730022994397</v>
       </c>
       <c r="AB9" t="n">
-        <v>246.1696957082066</v>
+        <v>290.4412865698843</v>
       </c>
       <c r="AC9" t="n">
-        <v>222.6756054512247</v>
+        <v>262.721977816646</v>
       </c>
       <c r="AD9" t="n">
-        <v>179916.502230983</v>
+        <v>212273.0022994397</v>
       </c>
       <c r="AE9" t="n">
-        <v>246169.6957082066</v>
+        <v>290441.2865698843</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.438230399903661e-06</v>
+        <v>7.080290987724054e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>222675.6054512247</v>
+        <v>262721.977816646</v>
       </c>
     </row>
     <row r="10">
@@ -60890,28 +60890,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>180.5085858096693</v>
+        <v>212.865085878126</v>
       </c>
       <c r="AB10" t="n">
-        <v>246.9798105814488</v>
+        <v>291.2514014431264</v>
       </c>
       <c r="AC10" t="n">
-        <v>223.4084040979683</v>
+        <v>263.4547764633895</v>
       </c>
       <c r="AD10" t="n">
-        <v>180508.5858096693</v>
+        <v>212865.085878126</v>
       </c>
       <c r="AE10" t="n">
-        <v>246979.8105814488</v>
+        <v>291251.4014431264</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.436662722354918e-06</v>
+        <v>7.077062695280262e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.949544270833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>223408.4040979683</v>
+        <v>263454.7764633895</v>
       </c>
     </row>
   </sheetData>
@@ -61187,28 +61187,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.8556613429926</v>
+        <v>500.9008906580867</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.7218267819034</v>
+        <v>685.3546967860791</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.1946910329198</v>
+        <v>619.9454064261732</v>
       </c>
       <c r="AD2" t="n">
-        <v>455855.6613429926</v>
+        <v>500900.8906580867</v>
       </c>
       <c r="AE2" t="n">
-        <v>623721.8267819034</v>
+        <v>685354.6967860791</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.082181332597545e-06</v>
+        <v>4.125184573993051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>564194.6910329198</v>
+        <v>619945.4064261733</v>
       </c>
     </row>
     <row r="3">
@@ -61293,28 +61293,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.8531483826656</v>
+        <v>340.5518190229656</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.8500150226485</v>
+        <v>465.9580228731311</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.7801188520832</v>
+        <v>421.4876431463111</v>
       </c>
       <c r="AD3" t="n">
-        <v>306853.1483826656</v>
+        <v>340551.8190229656</v>
       </c>
       <c r="AE3" t="n">
-        <v>419850.0150226485</v>
+        <v>465958.0228731312</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.723347884151769e-06</v>
+        <v>5.395453558938865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.013997395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>379780.1188520832</v>
+        <v>421487.6431463112</v>
       </c>
     </row>
     <row r="4">
@@ -61399,28 +61399,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.4258310647988</v>
+        <v>298.2097530511195</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.7990877072056</v>
+        <v>408.0237402103375</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.269490564638</v>
+        <v>369.0825271095781</v>
       </c>
       <c r="AD4" t="n">
-        <v>264425.8310647989</v>
+        <v>298209.7530511195</v>
       </c>
       <c r="AE4" t="n">
-        <v>361799.0877072056</v>
+        <v>408023.7402103374</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.95266655505448e-06</v>
+        <v>5.849776066266471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>327269.490564638</v>
+        <v>369082.5271095781</v>
       </c>
     </row>
     <row r="5">
@@ -61505,28 +61505,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.9834112963043</v>
+        <v>283.5967410820359</v>
       </c>
       <c r="AB5" t="n">
-        <v>342.0383318251978</v>
+        <v>388.0295725536484</v>
       </c>
       <c r="AC5" t="n">
-        <v>309.3946734897166</v>
+        <v>350.9965747520529</v>
       </c>
       <c r="AD5" t="n">
-        <v>249983.4112963043</v>
+        <v>283596.7410820359</v>
       </c>
       <c r="AE5" t="n">
-        <v>342038.3318251978</v>
+        <v>388029.5725536484</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.067879314239914e-06</v>
+        <v>6.078033754239314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>309394.6734897167</v>
+        <v>350996.574752053</v>
       </c>
     </row>
     <row r="6">
@@ -61611,28 +61611,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>240.7436950818364</v>
+        <v>263.2663992479375</v>
       </c>
       <c r="AB6" t="n">
-        <v>329.3961444730587</v>
+        <v>360.2127019448541</v>
       </c>
       <c r="AC6" t="n">
-        <v>297.9590387550402</v>
+        <v>325.8345072329389</v>
       </c>
       <c r="AD6" t="n">
-        <v>240743.6950818364</v>
+        <v>263266.3992479375</v>
       </c>
       <c r="AE6" t="n">
-        <v>329396.1444730586</v>
+        <v>360212.7019448541</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.14274245208617e-06</v>
+        <v>6.226351413498524e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.211588541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>297959.0387550402</v>
+        <v>325834.5072329389</v>
       </c>
     </row>
     <row r="7">
@@ -61717,28 +61717,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.0369433431866</v>
+        <v>256.5596475092844</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.2196708632382</v>
+        <v>351.0362283348586</v>
       </c>
       <c r="AC7" t="n">
-        <v>289.6583549072765</v>
+        <v>317.5338233851254</v>
       </c>
       <c r="AD7" t="n">
-        <v>234036.9433431866</v>
+        <v>256559.6475092845</v>
       </c>
       <c r="AE7" t="n">
-        <v>320219.6708632382</v>
+        <v>351036.2283348586</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193657435621393e-06</v>
+        <v>6.327223369930191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.128580729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>289658.3549072765</v>
+        <v>317533.8233851254</v>
       </c>
     </row>
     <row r="8">
@@ -61823,28 +61823,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>229.5134217297086</v>
+        <v>252.0361258958065</v>
       </c>
       <c r="AB8" t="n">
-        <v>314.0303890279917</v>
+        <v>344.846946499612</v>
       </c>
       <c r="AC8" t="n">
-        <v>284.0597694436723</v>
+        <v>311.9352379215212</v>
       </c>
       <c r="AD8" t="n">
-        <v>229513.4217297086</v>
+        <v>252036.1258958065</v>
       </c>
       <c r="AE8" t="n">
-        <v>314030.3890279917</v>
+        <v>344846.9464996121</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.221328622325318e-06</v>
+        <v>6.382045085382184e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>284059.7694436723</v>
+        <v>311935.2379215212</v>
       </c>
     </row>
     <row r="9">
@@ -61929,28 +61929,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>225.3269327936266</v>
+        <v>247.8496369597244</v>
       </c>
       <c r="AB9" t="n">
-        <v>308.3022501707903</v>
+        <v>339.1188076424107</v>
       </c>
       <c r="AC9" t="n">
-        <v>278.8783161195071</v>
+        <v>306.7537845973559</v>
       </c>
       <c r="AD9" t="n">
-        <v>225326.9327936266</v>
+        <v>247849.6369597244</v>
       </c>
       <c r="AE9" t="n">
-        <v>308302.2501707904</v>
+        <v>339118.8076424107</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.249301676520559e-06</v>
+        <v>6.437464855911835e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.040690104166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>278878.3161195071</v>
+        <v>306753.7845973559</v>
       </c>
     </row>
     <row r="10">
@@ -62035,28 +62035,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>208.4084950868861</v>
+        <v>242.1070762186347</v>
       </c>
       <c r="AB10" t="n">
-        <v>285.1536973116455</v>
+        <v>331.261582692556</v>
       </c>
       <c r="AC10" t="n">
-        <v>257.9390286560337</v>
+        <v>299.6464421690283</v>
       </c>
       <c r="AD10" t="n">
-        <v>208408.4950868861</v>
+        <v>242107.0762186347</v>
       </c>
       <c r="AE10" t="n">
-        <v>285153.6973116455</v>
+        <v>331261.582692556</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.277073485721589e-06</v>
+        <v>6.49248592305638e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.998372395833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>257939.0286560337</v>
+        <v>299646.4421690283</v>
       </c>
     </row>
     <row r="11">
@@ -62141,28 +62141,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>206.0551200819617</v>
+        <v>239.7537012137103</v>
       </c>
       <c r="AB11" t="n">
-        <v>281.9337058063318</v>
+        <v>328.0415911872423</v>
       </c>
       <c r="AC11" t="n">
-        <v>255.0263486206996</v>
+        <v>296.7337621336943</v>
       </c>
       <c r="AD11" t="n">
-        <v>206055.1200819617</v>
+        <v>239753.7012137103</v>
       </c>
       <c r="AE11" t="n">
-        <v>281933.7058063318</v>
+        <v>328041.5911872422</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.290355655339473e-06</v>
+        <v>6.518800346473337e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.977213541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>255026.3486206996</v>
+        <v>296733.7621336943</v>
       </c>
     </row>
     <row r="12">
@@ -62247,28 +62247,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>202.1832362578676</v>
+        <v>235.8818173896162</v>
       </c>
       <c r="AB12" t="n">
-        <v>276.6360235427501</v>
+        <v>322.7439089236606</v>
       </c>
       <c r="AC12" t="n">
-        <v>250.2342697170088</v>
+        <v>291.9416832300034</v>
       </c>
       <c r="AD12" t="n">
-        <v>202183.2362578676</v>
+        <v>235881.8173896162</v>
       </c>
       <c r="AE12" t="n">
-        <v>276636.0235427502</v>
+        <v>322743.9089236606</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.303436579963147e-06</v>
+        <v>6.544716066505187e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.957682291666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>250234.2697170088</v>
+        <v>291941.6832300034</v>
       </c>
     </row>
     <row r="13">
@@ -62353,28 +62353,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>199.591881114391</v>
+        <v>233.2904622461396</v>
       </c>
       <c r="AB13" t="n">
-        <v>273.0904171129268</v>
+        <v>319.1983024938372</v>
       </c>
       <c r="AC13" t="n">
-        <v>247.0270509885567</v>
+        <v>288.7344645015514</v>
       </c>
       <c r="AD13" t="n">
-        <v>199591.881114391</v>
+        <v>233290.4622461396</v>
       </c>
       <c r="AE13" t="n">
-        <v>273090.4171129268</v>
+        <v>319198.3024938372</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.310782022251825e-06</v>
+        <v>6.559268740061535e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.9462890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>247027.0509885567</v>
+        <v>288734.4645015514</v>
       </c>
     </row>
     <row r="14">
@@ -62459,28 +62459,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>199.3286197707833</v>
+        <v>233.0272009025319</v>
       </c>
       <c r="AB14" t="n">
-        <v>272.7302113283321</v>
+        <v>318.8380967092425</v>
       </c>
       <c r="AC14" t="n">
-        <v>246.7012227384917</v>
+        <v>288.4086362514863</v>
       </c>
       <c r="AD14" t="n">
-        <v>199328.6197707833</v>
+        <v>233027.2009025319</v>
       </c>
       <c r="AE14" t="n">
-        <v>272730.2113283321</v>
+        <v>318838.0967092425</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.316014392101294e-06</v>
+        <v>6.569635028074275e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.938151041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>246701.2227384917</v>
+        <v>288408.6362514863</v>
       </c>
     </row>
     <row r="15">
@@ -62565,28 +62565,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>200.1168058436361</v>
+        <v>233.8153869753846</v>
       </c>
       <c r="AB15" t="n">
-        <v>273.8086422855242</v>
+        <v>319.9165276664346</v>
       </c>
       <c r="AC15" t="n">
-        <v>247.676729758717</v>
+        <v>289.3841432717117</v>
       </c>
       <c r="AD15" t="n">
-        <v>200116.805843636</v>
+        <v>233815.3869753846</v>
       </c>
       <c r="AE15" t="n">
-        <v>273808.6422855242</v>
+        <v>319916.5276664346</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.31651750458682e-06</v>
+        <v>6.570631786537039e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.938151041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>247676.729758717</v>
+        <v>289384.1432717117</v>
       </c>
     </row>
   </sheetData>
